--- a/data/hotels_by_city/Denver/Denver_shard_144.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_144.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="394">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33471-d9985040-Reviews-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
   </si>
   <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Home2-Suites-By-Hilton-Denver-Highlands-Ranch.h13229733.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,1065 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r602087600-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>33471</t>
+  </si>
+  <si>
+    <t>9985040</t>
+  </si>
+  <si>
+    <t>602087600</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>Excellent stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My first time staying at this location. Very impressed!  Thank you Laura for your kindness in contributing to a great experience. See y’all very soon. The gym is roomy with all equipment you’d hope for. Room was very clean. Bed very comfortable. </t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r595720823-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>595720823</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>Wow!</t>
+  </si>
+  <si>
+    <t>This was our first time staying at a Home2 and we were blown away!  Our suite was very comfortable and the entire hotel felt very clean.  Boy were we impressed!  Everything about it was very convenient.  We looked to stay in a Home2 the rest of our trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Angela N, General Manager at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>This was our first time staying at a Home2 and we were blown away!  Our suite was very comfortable and the entire hotel felt very clean.  Boy were we impressed!  Everything about it was very convenient.  We looked to stay in a Home2 the rest of our trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r592296545-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>592296545</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>Good location but dirty</t>
+  </si>
+  <si>
+    <t>Our family stayed one night at this hotel for the first time on 6/31/2018 for my son’s baseball tournament in Littleton. It’s so nice that the hotel offered a refrigerator and small kitchen as well as a place outdoors to grill for our team dinner. We felt that the room was hardly cleaned from the last guests. Starting from crumbs on the floor as well as a dried piece of pepperoni- gross. There was hair in the shower and marks that could be scrubbed off. The mattress pad on the pullout couch was dirty and had been previously used. The cushions on the couch were stained as well.There was a small mark on the King size bedspread that should have been replaced with a clean one. Attention to detail is key when cleaning a hotel room for me. Overall, it was a less than acceptable experience and glad it was just for one night. We would consider staying there again if the rooms were cleaner since the location is good.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Angela N, General Manager at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Our family stayed one night at this hotel for the first time on 6/31/2018 for my son’s baseball tournament in Littleton. It’s so nice that the hotel offered a refrigerator and small kitchen as well as a place outdoors to grill for our team dinner. We felt that the room was hardly cleaned from the last guests. Starting from crumbs on the floor as well as a dried piece of pepperoni- gross. There was hair in the shower and marks that could be scrubbed off. The mattress pad on the pullout couch was dirty and had been previously used. The cushions on the couch were stained as well.There was a small mark on the King size bedspread that should have been replaced with a clean one. Attention to detail is key when cleaning a hotel room for me. Overall, it was a less than acceptable experience and glad it was just for one night. We would consider staying there again if the rooms were cleaner since the location is good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r577238336-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>577238336</t>
+  </si>
+  <si>
+    <t>05/01/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great property &amp; location </t>
+  </si>
+  <si>
+    <t>This new, or new looking, hotel is in a great location! The front desk staff is friendly and went out of their way to help. Literally every aspect of the hotel is great, from a large room to the views to property being clean and well maintained MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Angela N, General Manager at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded May 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2018</t>
+  </si>
+  <si>
+    <t>This new, or new looking, hotel is in a great location! The front desk staff is friendly and went out of their way to help. Literally every aspect of the hotel is great, from a large room to the views to property being clean and well maintained More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r576977794-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>576977794</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>Beautiful, clean hotel in a great location</t>
+  </si>
+  <si>
+    <t>This hotel is beautiful, modern, clean and in a great location.  Easy access to stores and restaurants.  Staff is helpful, friendly and attentive.  Rooms are very clean and beds are comfortable.  Be sure to check out the Old Chicago pizza and taproom across the street.  Good food and fun atmosphere.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>This hotel is beautiful, modern, clean and in a great location.  Easy access to stores and restaurants.  Staff is helpful, friendly and attentive.  Rooms are very clean and beds are comfortable.  Be sure to check out the Old Chicago pizza and taproom across the street.  Good food and fun atmosphere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r575299507-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>575299507</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>Great Value!</t>
+  </si>
+  <si>
+    <t>Stayed here several nights to attend a family event held in the area.  Location was good, room was clean, beds were comfortable and the clerks were all friendly and helpful in recommending restaurants nearby.  Breakfast was typical, quite a few choices and had some prepared items that you could microwave. Would definitely stay here again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here several nights to attend a family event held in the area.  Location was good, room was clean, beds were comfortable and the clerks were all friendly and helpful in recommending restaurants nearby.  Breakfast was typical, quite a few choices and had some prepared items that you could microwave. Would definitely stay here again.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r566857109-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>566857109</t>
+  </si>
+  <si>
+    <t>03/16/2018</t>
+  </si>
+  <si>
+    <t>Appreciative for everything during a difficult time.</t>
+  </si>
+  <si>
+    <t>Copy of what I emailed the General Manager:I just wanted to take a moment to praises your hotel and staff.  I was there with my husband, son, and dog for 9 nights while my sewer pipe was being fixed.  The hotel was clean, well stocked, great bedding, and very comfortable for our long stay.  The staff was even better.  The manager (sorry I don't know her name) was extremely understanding about an issue we had with our dog and another guest's dog.  She was courteous and very accommodating.  Sara at the front desk was always there to help with anything we needed with a smile on her face.  Brenda and Manuela in housekeeping were so sweet and helpful.  Every day they checked on us and got anything we needed.  They spoiled my dog Daisy and it was a joy to talk to them everyday.  I am so appreciative of making our stay so pleasant during a difficult time.  When my family or friends come in town your hotel will be the first that I recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Christine F, Director of Sales at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded March 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2018</t>
+  </si>
+  <si>
+    <t>Copy of what I emailed the General Manager:I just wanted to take a moment to praises your hotel and staff.  I was there with my husband, son, and dog for 9 nights while my sewer pipe was being fixed.  The hotel was clean, well stocked, great bedding, and very comfortable for our long stay.  The staff was even better.  The manager (sorry I don't know her name) was extremely understanding about an issue we had with our dog and another guest's dog.  She was courteous and very accommodating.  Sara at the front desk was always there to help with anything we needed with a smile on her face.  Brenda and Manuela in housekeeping were so sweet and helpful.  Every day they checked on us and got anything we needed.  They spoiled my dog Daisy and it was a joy to talk to them everyday.  I am so appreciative of making our stay so pleasant during a difficult time.  When my family or friends come in town your hotel will be the first that I recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r566368614-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>566368614</t>
+  </si>
+  <si>
+    <t>03/13/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roomy and clean. </t>
+  </si>
+  <si>
+    <t>Stayed for two nights. The staff was very friendly throughout our stay. The rooms are extremely large with lots of storage and counter space. A full-size fridge and sink and microwave are a nice surprise. There is no room service during the weekend unless you ask. I only requested extra towels and they were delivered quickly. The bed was comfy and so were the pillows. People who were traveling with us took advantage of the indoor pool and the workout room. It’s situated in an industrial park, and although  it was not very scenic, there is a long stretch of sidewalk that you could use to get some outdoor exercise. The breakfast buffet is not as varied as other places that offer a free breakfast, but you won’t go hungry. We would stay there again if in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>Angela N, General Manager at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded March 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2018</t>
+  </si>
+  <si>
+    <t>Stayed for two nights. The staff was very friendly throughout our stay. The rooms are extremely large with lots of storage and counter space. A full-size fridge and sink and microwave are a nice surprise. There is no room service during the weekend unless you ask. I only requested extra towels and they were delivered quickly. The bed was comfy and so were the pillows. People who were traveling with us took advantage of the indoor pool and the workout room. It’s situated in an industrial park, and although  it was not very scenic, there is a long stretch of sidewalk that you could use to get some outdoor exercise. The breakfast buffet is not as varied as other places that offer a free breakfast, but you won’t go hungry. We would stay there again if in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r566184607-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>566184607</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t>Front Desk Agent Told Us Nothing About Property</t>
+  </si>
+  <si>
+    <t>I stayed here over Thursday and Friday. I'm a Hilton team member so I get really good rates for rooms. However when we checked in, the front desk agent, her name started with a K, never told us anything. Not even where the elevators were. The hotel itself was wonderful but the guest service was definitely lacking.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I stayed here over Thursday and Friday. I'm a Hilton team member so I get really good rates for rooms. However when we checked in, the front desk agent, her name started with a K, never told us anything. Not even where the elevators were. The hotel itself was wonderful but the guest service was definitely lacking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r556205736-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>556205736</t>
+  </si>
+  <si>
+    <t>01/24/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazing but pets allowed </t>
+  </si>
+  <si>
+    <t>The hotel was great very new but the problem they allow the pets to be in they are very noisy. The brake fast was very simple. I love this place and if you are ok with pets you will enjoy your stay. Staff very helpful to give more information about snow road status and they check my car tire to make sure it is safe to be drived in snow. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Angela N, General Manager at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded January 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2018</t>
+  </si>
+  <si>
+    <t>The hotel was great very new but the problem they allow the pets to be in they are very noisy. The brake fast was very simple. I love this place and if you are ok with pets you will enjoy your stay. Staff very helpful to give more information about snow road status and they check my car tire to make sure it is safe to be drived in snow. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r555060735-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>555060735</t>
+  </si>
+  <si>
+    <t>01/20/2018</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>When I go to cities more than once I try to stay in different areas and hotels.  This time happened to be the southern end of the city.  We stayed at Home2 Suites and found a nice place to stay.  The room was nice and had a kitchen which comes in handy with kids.  Having a fridge big enough to put stuff in was awesome.  There are shops nearby but it was a little difficult to get to some places due to construction in the area.  I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Angela N, General Manager at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded January 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2018</t>
+  </si>
+  <si>
+    <t>When I go to cities more than once I try to stay in different areas and hotels.  This time happened to be the southern end of the city.  We stayed at Home2 Suites and found a nice place to stay.  The room was nice and had a kitchen which comes in handy with kids.  Having a fridge big enough to put stuff in was awesome.  There are shops nearby but it was a little difficult to get to some places due to construction in the area.  I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r545515910-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>545515910</t>
+  </si>
+  <si>
+    <t>12/06/2017</t>
+  </si>
+  <si>
+    <t>My 1st Choice To Stay In South Denver</t>
+  </si>
+  <si>
+    <t>I have an opportunity to travel the country.  I stay at many hotels and I have a couple that are my go to list.  Home2 Suites in Highlands Ranch is one of those hotels.  Great guest service for me, my family and even my dog.  I also love that when I stay there I never have to worry if my living space has been clean.  I can not say that about most hotels.  Because of the staff at H2Suites, we will be back many times!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Angela N, General Manager at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded December 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2017</t>
+  </si>
+  <si>
+    <t>I have an opportunity to travel the country.  I stay at many hotels and I have a couple that are my go to list.  Home2 Suites in Highlands Ranch is one of those hotels.  Great guest service for me, my family and even my dog.  I also love that when I stay there I never have to worry if my living space has been clean.  I can not say that about most hotels.  Because of the staff at H2Suites, we will be back many times!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r533486556-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>533486556</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>Great outdoor lounge</t>
+  </si>
+  <si>
+    <t>Well appointed room, clean good looking lobby and a great outdoor lounge with built in fireplaces into tables. The hotel looked new (or relatively new) and had a good breakfast buffet too. Was a great weekend Stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Angela N, General Manager at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded October 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2017</t>
+  </si>
+  <si>
+    <t>Well appointed room, clean good looking lobby and a great outdoor lounge with built in fireplaces into tables. The hotel looked new (or relatively new) and had a good breakfast buffet too. Was a great weekend Stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r529184127-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>529184127</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awful. Disgusting urine covered mattresses </t>
+  </si>
+  <si>
+    <t>One of the worst hotel experiences I have had. Went to lay down after a long flight and the bed was saturated in pee. With yellow stains all over the comforter/sheets as well. Told the front desk and not only no apology, but didn't even attempt to solve the issue. Would never recommend to anyone. See pictures. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Angela N, Manager at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded October 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2017</t>
+  </si>
+  <si>
+    <t>One of the worst hotel experiences I have had. Went to lay down after a long flight and the bed was saturated in pee. With yellow stains all over the comforter/sheets as well. Told the front desk and not only no apology, but didn't even attempt to solve the issue. Would never recommend to anyone. See pictures. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r524797050-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>524797050</t>
+  </si>
+  <si>
+    <t>09/15/2017</t>
+  </si>
+  <si>
+    <t>Homes 2 Suites has Everything we Need!</t>
+  </si>
+  <si>
+    <t>The room was well appointed, equiped kitchenette with microwave, large refrigerator/ freezer, sink, and dishwasher. The area was quite and sleep quality was good. All staff members were very helpful. I questioned the cleanliness of the room when I saw dark spots in the shower. The wall light on one side of the bed did not work but was repaired after I mentioned it to the desk worker (the second time I told her), and the strip at the bottom of the door was partly torn off allowing light to seep under the door making sleep hard.MoreShow less</t>
+  </si>
+  <si>
+    <t>Angela N, General Manager at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded October 3, 2017</t>
+  </si>
+  <si>
+    <t>The room was well appointed, equiped kitchenette with microwave, large refrigerator/ freezer, sink, and dishwasher. The area was quite and sleep quality was good. All staff members were very helpful. I questioned the cleanliness of the room when I saw dark spots in the shower. The wall light on one side of the bed did not work but was repaired after I mentioned it to the desk worker (the second time I told her), and the strip at the bottom of the door was partly torn off allowing light to seep under the door making sleep hard.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r511995536-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>511995536</t>
+  </si>
+  <si>
+    <t>08/12/2017</t>
+  </si>
+  <si>
+    <t>Family reunion</t>
+  </si>
+  <si>
+    <t>I reserved a suite at Home2 so I could be near my grandaughter and her family.  My two daughters and two grandsons were with me.  We drove a rental car from the airport.  The suite was beautiful with two big queen beds and a room divider with a sleeper couch for the boys.  10 were allowed in the indoor pool so my CO granddaughter brought her four to visit for a quick swim.  The staff was wonderful to us, especially Sherri who helped me with a delicious self-serve buffet Breakfast that was included.  We stayed two enjoyable nights, used the laundry machines, and enjoyed visiting on the two beautiful outdoor patios.  I was charged half of what a tiny NYC hotel room would have cost without any of the amenities.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Christine F, Director of Sales at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded August 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2017</t>
+  </si>
+  <si>
+    <t>I reserved a suite at Home2 so I could be near my grandaughter and her family.  My two daughters and two grandsons were with me.  We drove a rental car from the airport.  The suite was beautiful with two big queen beds and a room divider with a sleeper couch for the boys.  10 were allowed in the indoor pool so my CO granddaughter brought her four to visit for a quick swim.  The staff was wonderful to us, especially Sherri who helped me with a delicious self-serve buffet Breakfast that was included.  We stayed two enjoyable nights, used the laundry machines, and enjoyed visiting on the two beautiful outdoor patios.  I was charged half of what a tiny NYC hotel room would have cost without any of the amenities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r511979391-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>511979391</t>
+  </si>
+  <si>
+    <t>Well appointed</t>
+  </si>
+  <si>
+    <t>This brand spanking new suites hotel is thoughtfully appointed, well staffed, and very comfortable. The location near C-470 was very convenient. We went during the soft opening and got a great rate which sweetened the experience. The breakfast was pretty good, but not everyone in Colorado likes to eat turkey and egg sandwiches for breakfast--how about including the more decadent ham, sausage, or bacon varieties? The buckwheat waffles were tasty.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>This brand spanking new suites hotel is thoughtfully appointed, well staffed, and very comfortable. The location near C-470 was very convenient. We went during the soft opening and got a great rate which sweetened the experience. The breakfast was pretty good, but not everyone in Colorado likes to eat turkey and egg sandwiches for breakfast--how about including the more decadent ham, sausage, or bacon varieties? The buckwheat waffles were tasty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r511333566-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>511333566</t>
+  </si>
+  <si>
+    <t>08/11/2017</t>
+  </si>
+  <si>
+    <t>Great customer service</t>
+  </si>
+  <si>
+    <t>New, upscale, modern property. Conveniently located to restaurants, shopping. Complementary coffee and "on the go" type breakfast. Nice outdoor spaces with gas fireplace! Thank you to John at the front desk! We had a special request and he exceeded our expectations! MoreShow less</t>
+  </si>
+  <si>
+    <t>New, upscale, modern property. Conveniently located to restaurants, shopping. Complementary coffee and "on the go" type breakfast. Nice outdoor spaces with gas fireplace! Thank you to John at the front desk! We had a special request and he exceeded our expectations! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r503210267-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>503210267</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>OK. But will look for other option next time</t>
+  </si>
+  <si>
+    <t>Hotel is clean and the staff is friendly when you come across them. The breakfast is so a bit on the lean side. Enough that I decided it was better to go out for breakfast. If you want microwaved egg sandwiches or bagles, you are good to go. The reason I gave them a 3 is that they don't do a very good job controlling their guests. We had kids racing down the hallways late at night every night we were there. Not fun when you just doze off and then hear kids (we have kids so it's not a kid thing) racing (ready set go) at midnight. This alone would give them a 4, but they get a 3 for how they handled the fire alarm evacuation. Someone got a bagel stuck the toaster that set off the fire alarm and the building had to be evacuated around 7:30 am. OK, it happens, but here is my issue. Not acknowledgement to the guests at all after the event. No sorry of the inconvenience. No explanation of what happened. NOTHING. You would think they would have a staff member at the door when they let you back in explaining the issue, or at least a check out give you a "I am Sorry.". I am not looking for a discount, but at least let me know you acknowledge the event and that you are sorry I got drug out of...Hotel is clean and the staff is friendly when you come across them. The breakfast is so a bit on the lean side. Enough that I decided it was better to go out for breakfast. If you want microwaved egg sandwiches or bagles, you are good to go. The reason I gave them a 3 is that they don't do a very good job controlling their guests. We had kids racing down the hallways late at night every night we were there. Not fun when you just doze off and then hear kids (we have kids so it's not a kid thing) racing (ready set go) at midnight. This alone would give them a 4, but they get a 3 for how they handled the fire alarm evacuation. Someone got a bagel stuck the toaster that set off the fire alarm and the building had to be evacuated around 7:30 am. OK, it happens, but here is my issue. Not acknowledgement to the guests at all after the event. No sorry of the inconvenience. No explanation of what happened. NOTHING. You would think they would have a staff member at the door when they let you back in explaining the issue, or at least a check out give you a "I am Sorry.". I am not looking for a discount, but at least let me know you acknowledge the event and that you are sorry I got drug out of bed at 7:30 am when I am on vacation time. Again. Clean hotel, good convenient location, but I can't go higher than a 3 after the above two events.MoreShow less</t>
+  </si>
+  <si>
+    <t>Christine F, Director of Sales at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded July 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2017</t>
+  </si>
+  <si>
+    <t>Hotel is clean and the staff is friendly when you come across them. The breakfast is so a bit on the lean side. Enough that I decided it was better to go out for breakfast. If you want microwaved egg sandwiches or bagles, you are good to go. The reason I gave them a 3 is that they don't do a very good job controlling their guests. We had kids racing down the hallways late at night every night we were there. Not fun when you just doze off and then hear kids (we have kids so it's not a kid thing) racing (ready set go) at midnight. This alone would give them a 4, but they get a 3 for how they handled the fire alarm evacuation. Someone got a bagel stuck the toaster that set off the fire alarm and the building had to be evacuated around 7:30 am. OK, it happens, but here is my issue. Not acknowledgement to the guests at all after the event. No sorry of the inconvenience. No explanation of what happened. NOTHING. You would think they would have a staff member at the door when they let you back in explaining the issue, or at least a check out give you a "I am Sorry.". I am not looking for a discount, but at least let me know you acknowledge the event and that you are sorry I got drug out of...Hotel is clean and the staff is friendly when you come across them. The breakfast is so a bit on the lean side. Enough that I decided it was better to go out for breakfast. If you want microwaved egg sandwiches or bagles, you are good to go. The reason I gave them a 3 is that they don't do a very good job controlling their guests. We had kids racing down the hallways late at night every night we were there. Not fun when you just doze off and then hear kids (we have kids so it's not a kid thing) racing (ready set go) at midnight. This alone would give them a 4, but they get a 3 for how they handled the fire alarm evacuation. Someone got a bagel stuck the toaster that set off the fire alarm and the building had to be evacuated around 7:30 am. OK, it happens, but here is my issue. Not acknowledgement to the guests at all after the event. No sorry of the inconvenience. No explanation of what happened. NOTHING. You would think they would have a staff member at the door when they let you back in explaining the issue, or at least a check out give you a "I am Sorry.". I am not looking for a discount, but at least let me know you acknowledge the event and that you are sorry I got drug out of bed at 7:30 am when I am on vacation time. Again. Clean hotel, good convenient location, but I can't go higher than a 3 after the above two events.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r497985842-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>497985842</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>Not great for a long stay</t>
+  </si>
+  <si>
+    <t>We booked 7 nights and checked in early via digital key with no problems. Front desk and hotel staff were good. We do NOT likeHotel policy of cleaning room thoroughly only on your fifth day of stay as posted on bathroom mirror!!  When we first arrived, we noticed only 2 pillows on bed and they looked worn and did not feel clean. Later in the stay we noticed the lower part of base sheet hadSome nasty stains which we brought to the attention of front desk at checkout. The microwave egg sandwiches for breakfast are OK for 2 nights along with cereal, waffles, and some fruit. We liked the saline pool and indoor area. We think this hotel could definitely improve room cleaning and it would be much better!  It is ok for 1 or 2 nights until changes are made.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Christine F, Director of Sales at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>We booked 7 nights and checked in early via digital key with no problems. Front desk and hotel staff were good. We do NOT likeHotel policy of cleaning room thoroughly only on your fifth day of stay as posted on bathroom mirror!!  When we first arrived, we noticed only 2 pillows on bed and they looked worn and did not feel clean. Later in the stay we noticed the lower part of base sheet hadSome nasty stains which we brought to the attention of front desk at checkout. The microwave egg sandwiches for breakfast are OK for 2 nights along with cereal, waffles, and some fruit. We liked the saline pool and indoor area. We think this hotel could definitely improve room cleaning and it would be much better!  It is ok for 1 or 2 nights until changes are made.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r489968473-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>489968473</t>
+  </si>
+  <si>
+    <t>06/02/2017</t>
+  </si>
+  <si>
+    <t>THE BEST designed and welcoming place ever!!</t>
+  </si>
+  <si>
+    <t>Shocking to be so wonderfully impressed by a hotel room! This place shoukd get the top award of them all for both efficiency of space AND extremely comfy roominess!! Great layout designed so my husnand and I don,t bump into each other. Plenty of shelves (even in the shower!), hooks, a versatile kitchen, and slude-away tables, and plenty of drawers and closet space. Cheerful breakfast area in lobby that is not a cookie cutter of other hotels' dull and dreary buffets. Imagine offering wholegrain, buckwheat waffles! THIS is a spectacular concept inspired by a management team that LISTENS  to and wants to please guests' needs instead of treating them like cattle.MoreShow less</t>
+  </si>
+  <si>
+    <t>Christine F, Director of Sales at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Shocking to be so wonderfully impressed by a hotel room! This place shoukd get the top award of them all for both efficiency of space AND extremely comfy roominess!! Great layout designed so my husnand and I don,t bump into each other. Plenty of shelves (even in the shower!), hooks, a versatile kitchen, and slude-away tables, and plenty of drawers and closet space. Cheerful breakfast area in lobby that is not a cookie cutter of other hotels' dull and dreary buffets. Imagine offering wholegrain, buckwheat waffles! THIS is a spectacular concept inspired by a management team that LISTENS  to and wants to please guests' needs instead of treating them like cattle.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r486670364-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>486670364</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel but average for the price paid</t>
+  </si>
+  <si>
+    <t>Room was clean and had small kitchen with all the necessities.  Beds were good, Sheets very comfortable but pillows were terrible like no support very soft. Most of the workers were very friendly although I didn't like no cleaning service on weekends ( price was more on weekend so why is service cut) &amp; when I went to front desk to request some weekend service she seemed a bit annoyed so that was a negative &amp; cleaning should be daily. Breakfast was just ok same everyday no variety, microwave eggs, oatmeal was gone most days by time we got there, no fresh fruit but bananas. Like that coffee was 24 hours but was coffee cold at night, not fresh. Wish breakfast was till 10 on all days cause at 9:30 it was quickly closed.MoreShow less</t>
+  </si>
+  <si>
+    <t>Room was clean and had small kitchen with all the necessities.  Beds were good, Sheets very comfortable but pillows were terrible like no support very soft. Most of the workers were very friendly although I didn't like no cleaning service on weekends ( price was more on weekend so why is service cut) &amp; when I went to front desk to request some weekend service she seemed a bit annoyed so that was a negative &amp; cleaning should be daily. Breakfast was just ok same everyday no variety, microwave eggs, oatmeal was gone most days by time we got there, no fresh fruit but bananas. Like that coffee was 24 hours but was coffee cold at night, not fresh. Wish breakfast was till 10 on all days cause at 9:30 it was quickly closed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r486273180-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>486273180</t>
+  </si>
+  <si>
+    <t>05/21/2017</t>
+  </si>
+  <si>
+    <t>Great for long or short stays!</t>
+  </si>
+  <si>
+    <t>We are Hilton Diamond members and had to be here in this hotel for 7 nights because the floors in our home were being re-done. This property is a year old and very, very clean and friendly.  We had a King Studio suite.  There is a huge amount of storage and work space.  The kitchen is very well equipped with microwave, full size refrigerator/freezer, dishwasher, and cooking hot plates are available if requested.  Couch is very comfy as is the king bed.  Linens are very high quality!  Pillows aren't the greatest, but this is a small ding. There is free wi-fi which worked well our entire stay. There is a large TV and a great desk and work table.  One thing we liked a lot is the large picture window...so nice to have a well lit room with natural light.  Downstairs there is a well stocked breakfast bar with hot and cold foods.  There's also a small grocery area.  The exercise room is well equipped.  There is a guest laundry and a nice indoor swimming pool. The rooms seem to have good insulation because we never heard any of our neighbors!  Staff is happy and professional. Any request was met.  We give this hotel a strong 5 stars!MoreShow less</t>
+  </si>
+  <si>
+    <t>We are Hilton Diamond members and had to be here in this hotel for 7 nights because the floors in our home were being re-done. This property is a year old and very, very clean and friendly.  We had a King Studio suite.  There is a huge amount of storage and work space.  The kitchen is very well equipped with microwave, full size refrigerator/freezer, dishwasher, and cooking hot plates are available if requested.  Couch is very comfy as is the king bed.  Linens are very high quality!  Pillows aren't the greatest, but this is a small ding. There is free wi-fi which worked well our entire stay. There is a large TV and a great desk and work table.  One thing we liked a lot is the large picture window...so nice to have a well lit room with natural light.  Downstairs there is a well stocked breakfast bar with hot and cold foods.  There's also a small grocery area.  The exercise room is well equipped.  There is a guest laundry and a nice indoor swimming pool. The rooms seem to have good insulation because we never heard any of our neighbors!  Staff is happy and professional. Any request was met.  We give this hotel a strong 5 stars!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r485139910-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>485139910</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>Make sure the sheets are clean !!!!</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this hotel for a total of 5 days . This was a getaway for me because of recent tragic event that occurred.   The first night that we slept on our bed. I noticed a smell that did not smell like clean sheets . I told my husband that this does not smell right.  It smelled like someone else's scent.  The next morning I looked at the pillow case and saw a big Brown stain . I was mortified .  I went to the front desk and I complained about the situation.  The woman at the front desk told me that the housekeeping staff was new. That was still no excuse for us sleeping on old sheets. Thankfully the sheets were changed, with no smell.  The next day though, we left out the room and came back later on in the early evening and the room had not been cleaned.  They explained to us that they housekeeping staff was gone . Again frustrated,because of the service. We left back out and when we returned , everything was straightened up .  The staff at the front desk really did their best to make sure we were ok but I'm just so displeased that because the housekeeping staff and the hotel is so new ,that we had to endure mediocre customer service .  A sign in the hotel said that if you are not satisfied with the...My husband and I stayed at this hotel for a total of 5 days . This was a getaway for me because of recent tragic event that occurred.   The first night that we slept on our bed. I noticed a smell that did not smell like clean sheets . I told my husband that this does not smell right.  It smelled like someone else's scent.  The next morning I looked at the pillow case and saw a big Brown stain . I was mortified .  I went to the front desk and I complained about the situation.  The woman at the front desk told me that the housekeeping staff was new. That was still no excuse for us sleeping on old sheets. Thankfully the sheets were changed, with no smell.  The next day though, we left out the room and came back later on in the early evening and the room had not been cleaned.  They explained to us that they housekeeping staff was gone . Again frustrated,because of the service. We left back out and when we returned , everything was straightened up .  The staff at the front desk really did their best to make sure we were ok but I'm just so displeased that because the housekeeping staff and the hotel is so new ,that we had to endure mediocre customer service .  A sign in the hotel said that if you are not satisfied with the service ,that the stay will be on them.   Now I was not too satisfied , and that offer did not take place .  Breakfast was good, Internet was kind of bad .  If the housekeeping was better this would have been a definite 5 star review. They really need to monitor housekeeping to make sure that whomever checks out that day ,housekeeping is aware that the room need a full cleaning for the next guest . MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this hotel for a total of 5 days . This was a getaway for me because of recent tragic event that occurred.   The first night that we slept on our bed. I noticed a smell that did not smell like clean sheets . I told my husband that this does not smell right.  It smelled like someone else's scent.  The next morning I looked at the pillow case and saw a big Brown stain . I was mortified .  I went to the front desk and I complained about the situation.  The woman at the front desk told me that the housekeeping staff was new. That was still no excuse for us sleeping on old sheets. Thankfully the sheets were changed, with no smell.  The next day though, we left out the room and came back later on in the early evening and the room had not been cleaned.  They explained to us that they housekeeping staff was gone . Again frustrated,because of the service. We left back out and when we returned , everything was straightened up .  The staff at the front desk really did their best to make sure we were ok but I'm just so displeased that because the housekeeping staff and the hotel is so new ,that we had to endure mediocre customer service .  A sign in the hotel said that if you are not satisfied with the...My husband and I stayed at this hotel for a total of 5 days . This was a getaway for me because of recent tragic event that occurred.   The first night that we slept on our bed. I noticed a smell that did not smell like clean sheets . I told my husband that this does not smell right.  It smelled like someone else's scent.  The next morning I looked at the pillow case and saw a big Brown stain . I was mortified .  I went to the front desk and I complained about the situation.  The woman at the front desk told me that the housekeeping staff was new. That was still no excuse for us sleeping on old sheets. Thankfully the sheets were changed, with no smell.  The next day though, we left out the room and came back later on in the early evening and the room had not been cleaned.  They explained to us that they housekeeping staff was gone . Again frustrated,because of the service. We left back out and when we returned , everything was straightened up .  The staff at the front desk really did their best to make sure we were ok but I'm just so displeased that because the housekeeping staff and the hotel is so new ,that we had to endure mediocre customer service .  A sign in the hotel said that if you are not satisfied with the service ,that the stay will be on them.   Now I was not too satisfied , and that offer did not take place .  Breakfast was good, Internet was kind of bad .  If the housekeeping was better this would have been a definite 5 star review. They really need to monitor housekeeping to make sure that whomever checks out that day ,housekeeping is aware that the room need a full cleaning for the next guest . More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r470959675-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>470959675</t>
+  </si>
+  <si>
+    <t>03/28/2017</t>
+  </si>
+  <si>
+    <t>Not too great</t>
+  </si>
+  <si>
+    <t>This is a newer hotel and the outside is gorgeous but we weren't impressed at all. Nice decor and room was large, but not very clean. Not even sure if the sheets had been changed and the comforter was not comfortable at all! It was horrible. Hair all over, spill in elevator didn't get cleaned up for two days. In my opinion, if they don't hire a new, better staff, this place will go down hill quickly. Needs much more attention to detail. We will stick with our go to Hampton Inn from now on. Not at all what you'd expect from a new Hilton brand hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Angela N, General Manager at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded March 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2017</t>
+  </si>
+  <si>
+    <t>This is a newer hotel and the outside is gorgeous but we weren't impressed at all. Nice decor and room was large, but not very clean. Not even sure if the sheets had been changed and the comforter was not comfortable at all! It was horrible. Hair all over, spill in elevator didn't get cleaned up for two days. In my opinion, if they don't hire a new, better staff, this place will go down hill quickly. Needs much more attention to detail. We will stick with our go to Hampton Inn from now on. Not at all what you'd expect from a new Hilton brand hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r470444215-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>470444215</t>
+  </si>
+  <si>
+    <t>03/26/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outstanding service and wonderful accommodations </t>
+  </si>
+  <si>
+    <t>All I can say is this Home 2 Suites Highlands Ranch Littleton Co exceeds more than what I expected.I was greeted by a extremely friendly management and front desk. Housekeeping, maintenance My first request was was I able to check in early due to my surgery, and they accommodated me!! Also I needed 12 pillows to be able to be comfortable to raise my legs and head, sure enough five minutes later I was told if we don't have enough we will go to the store to get you some!!  Wow!! They delivered it in ten min!!I stay a lot with Hilton, and every guest seemed to be happy with the accommodations and service this hotel offers!!With out a doubt I would recommend this hotel for business and leisure!! You surely won't be disappointed!! They treated me like family!!Thank you team for going beyond the guest expectations!! I am sure Hilton is very proud to have you in the system representing the brand!!MoreShow less</t>
+  </si>
+  <si>
+    <t>All I can say is this Home 2 Suites Highlands Ranch Littleton Co exceeds more than what I expected.I was greeted by a extremely friendly management and front desk. Housekeeping, maintenance My first request was was I able to check in early due to my surgery, and they accommodated me!! Also I needed 12 pillows to be able to be comfortable to raise my legs and head, sure enough five minutes later I was told if we don't have enough we will go to the store to get you some!!  Wow!! They delivered it in ten min!!I stay a lot with Hilton, and every guest seemed to be happy with the accommodations and service this hotel offers!!With out a doubt I would recommend this hotel for business and leisure!! You surely won't be disappointed!! They treated me like family!!Thank you team for going beyond the guest expectations!! I am sure Hilton is very proud to have you in the system representing the brand!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r469816690-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>469816690</t>
+  </si>
+  <si>
+    <t>03/24/2017</t>
+  </si>
+  <si>
+    <t>passing thru</t>
+  </si>
+  <si>
+    <t>First time to stay at Home2Suites for us, we booked 2 rooms for our group heading to vacation.  The rooms were very large and every comfortable with a great price.  I was very pleased for what we got for $115/night.  We definitely will be staying here in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>First time to stay at Home2Suites for us, we booked 2 rooms for our group heading to vacation.  The rooms were very large and every comfortable with a great price.  I was very pleased for what we got for $115/night.  We definitely will be staying here in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r457939206-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>457939206</t>
+  </si>
+  <si>
+    <t>02/07/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Basically a good stay however some improvements can be made, housekeeping was sporadic sometimes they leave coffee but most times they cleaned room &amp; left no coffee etc, extra toilet paper too, also would try to come in the room very early which was annoying.  Breakfast was one of reasons we picked hotel but if your staying more then a day or two its basically the same everyday, not cooked fresh but packaged eggs etc that you warm up yourself in microwave, Only apples and a couple of bananas so would have been nice for more fresh fruit  however they close it all off immediately at 9:30 weekdays don't understand why not till at least 10am, &amp; right at 9:30 they lock it off and you can't even get some juice. Otherwise hotel seemed new and fresh and in a good location but overpriced as I paid over $100 a night for a standard suburban motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Angela N, General Manager at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded February 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2017</t>
+  </si>
+  <si>
+    <t>Basically a good stay however some improvements can be made, housekeeping was sporadic sometimes they leave coffee but most times they cleaned room &amp; left no coffee etc, extra toilet paper too, also would try to come in the room very early which was annoying.  Breakfast was one of reasons we picked hotel but if your staying more then a day or two its basically the same everyday, not cooked fresh but packaged eggs etc that you warm up yourself in microwave, Only apples and a couple of bananas so would have been nice for more fresh fruit  however they close it all off immediately at 9:30 weekdays don't understand why not till at least 10am, &amp; right at 9:30 they lock it off and you can't even get some juice. Otherwise hotel seemed new and fresh and in a good location but overpriced as I paid over $100 a night for a standard suburban motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r457228660-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>457228660</t>
+  </si>
+  <si>
+    <t>02/04/2017</t>
+  </si>
+  <si>
+    <t>How every Home2 Suites should be</t>
+  </si>
+  <si>
+    <t>Home2 Suites by Hilton Denver Highlands Ranch is a fantastic property! The hotel is maintained in great condition and accessible with plenty of parking. Staff is friendly and hospitable, especially the Front Desk staff. Breakfast is a delicious melody of foods with friendly staff who ensure it's constantly stocked and will even offer to clear your place for you. Overall, this is a wonderful hotel and I would be happy to stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Angela N, General Manager at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded February 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2017</t>
+  </si>
+  <si>
+    <t>Home2 Suites by Hilton Denver Highlands Ranch is a fantastic property! The hotel is maintained in great condition and accessible with plenty of parking. Staff is friendly and hospitable, especially the Front Desk staff. Breakfast is a delicious melody of foods with friendly staff who ensure it's constantly stocked and will even offer to clear your place for you. Overall, this is a wonderful hotel and I would be happy to stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r451490944-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>451490944</t>
+  </si>
+  <si>
+    <t>01/12/2017</t>
+  </si>
+  <si>
+    <t>Perfect place for family</t>
+  </si>
+  <si>
+    <t>I didn't give it 5 stars because it obviously isn't a 5 star hotel but it was great! The staff are super friendly. The room was very spacious and even had a curtain dividing the beds from the sofa (sofa bed). Breakfast was great... A lot of options. Omelettes, breakfast sandwiches, fruit, etc. And Coffee and tea was available all day which was nice. They have high chairs so my 7 month old was happy. My 3 year old was happy with the TV channels Nick Jr and Disney. They have a free washer and dryer downstairs in the gym, just have to buy detergent which they sell. Overall great place to stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>Christine F, Director of Sales at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded January 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 13, 2017</t>
+  </si>
+  <si>
+    <t>I didn't give it 5 stars because it obviously isn't a 5 star hotel but it was great! The staff are super friendly. The room was very spacious and even had a curtain dividing the beds from the sofa (sofa bed). Breakfast was great... A lot of options. Omelettes, breakfast sandwiches, fruit, etc. And Coffee and tea was available all day which was nice. They have high chairs so my 7 month old was happy. My 3 year old was happy with the TV channels Nick Jr and Disney. They have a free washer and dryer downstairs in the gym, just have to buy detergent which they sell. Overall great place to stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r444690315-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>444690315</t>
+  </si>
+  <si>
+    <t>12/16/2016</t>
+  </si>
+  <si>
+    <t>Lovely Get A Way</t>
+  </si>
+  <si>
+    <t>Friendliest staff, from front desk, down to house keeping I really felt like a valued guest. The rooms are very clean, and spacious with the softest bed sheets and a bed that makes one melt. It was my first time swimming in a saline pool, I liked that it left my skin soft without the chlorine after feel. Breakfast had a wide variety, with a set up where one could read the many news papers or grab and go. I only stayed for one night, but wish my stay could of been longer. Everything one would need was on site or would be made available. I will be staying with Home 2 again in the future. Thank you.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Christine F, Director of Sales at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded December 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2016</t>
+  </si>
+  <si>
+    <t>Friendliest staff, from front desk, down to house keeping I really felt like a valued guest. The rooms are very clean, and spacious with the softest bed sheets and a bed that makes one melt. It was my first time swimming in a saline pool, I liked that it left my skin soft without the chlorine after feel. Breakfast had a wide variety, with a set up where one could read the many news papers or grab and go. I only stayed for one night, but wish my stay could of been longer. Everything one would need was on site or would be made available. I will be staying with Home 2 again in the future. Thank you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r442262623-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>442262623</t>
+  </si>
+  <si>
+    <t>12/05/2016</t>
+  </si>
+  <si>
+    <t>nice hotel friendly staff</t>
+  </si>
+  <si>
+    <t>Great clean spacious room little higher price then hilton just down road.  Breakfast is good but should run later then 9:30  am and at 9:30am they close it promptly!! Love coffee in the lobby all day though.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Christine F, Director of Sales at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded December 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2016</t>
+  </si>
+  <si>
+    <t>Great clean spacious room little higher price then hilton just down road.  Breakfast is good but should run later then 9:30  am and at 9:30am they close it promptly!! Love coffee in the lobby all day though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r441030747-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>441030747</t>
+  </si>
+  <si>
+    <t>11/29/2016</t>
+  </si>
+  <si>
+    <t>great new hotel....lovely area</t>
+  </si>
+  <si>
+    <t>stayed at this new modern hotel while my daughter did a course. lovely spacious rooms with everything u need.......great idea to have a kitchen in the room......lovely modern equipment.....breakfasts were pretty good with a large variety of items.....MoreShow less</t>
+  </si>
+  <si>
+    <t>stayed at this new modern hotel while my daughter did a course. lovely spacious rooms with everything u need.......great idea to have a kitchen in the room......lovely modern equipment.....breakfasts were pretty good with a large variety of items.....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r433531331-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>433531331</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>Great spot for the money!</t>
+  </si>
+  <si>
+    <t>This was a very good hotel. Friendly staff, fresh and clean rooms, and a pretty good breakfast (yogurt, oatmeal, eggs). We were here on business and would be happy to come back for another stay. Cheers.MoreShow less</t>
+  </si>
+  <si>
+    <t>Christine F, Director of Sales at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded November 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2016</t>
+  </si>
+  <si>
+    <t>This was a very good hotel. Friendly staff, fresh and clean rooms, and a pretty good breakfast (yogurt, oatmeal, eggs). We were here on business and would be happy to come back for another stay. Cheers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r432684609-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>432684609</t>
+  </si>
+  <si>
+    <t>10/29/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super clean,  great location! </t>
+  </si>
+  <si>
+    <t>I stayed here for a quick one night business trip on October 20th.  The staff were super helpful in helping our group figure out where to go to dinner... Room was very clean and nice.  Bed and sheets are awesome and breakfast was yummy.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Christine F, Director of Sales at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for a quick one night business trip on October 20th.  The staff were super helpful in helping our group figure out where to go to dinner... Room was very clean and nice.  Bed and sheets are awesome and breakfast was yummy.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r432001252-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>432001252</t>
+  </si>
+  <si>
+    <t>10/26/2016</t>
+  </si>
+  <si>
+    <t>Looking forward to come back</t>
+  </si>
+  <si>
+    <t>Lovely hotel, new, fresh, clean and awesome big suites with everything you need!  Loved the sheets and the modern bathroomsGreat pool and outdoor fire place to relax by. We where a big group of horse show girls and we are coming back for sure! Thanks Sara for taking great care of us.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lovely hotel, new, fresh, clean and awesome big suites with everything you need!  Loved the sheets and the modern bathroomsGreat pool and outdoor fire place to relax by. We where a big group of horse show girls and we are coming back for sure! Thanks Sara for taking great care of us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r415940663-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>415940663</t>
+  </si>
+  <si>
+    <t>09/07/2016</t>
+  </si>
+  <si>
+    <t>Enjoyable stay</t>
+  </si>
+  <si>
+    <t>We've stayed at Home2 before in other locations and this one lived up to that experience. The room was clean and ready for us. Online check-in worked fine. Having a toaster and proper mugs, plates and glasses is much nicer than the plastic you get in other hotels. The hotel itself was quiet and we didn't hear any other guests.The only thing we didn't like were the pillows (but that usually applies to hotels) which were flat an uncomfortable (for us). Having extra pillows wouldn't have helped either.The breakfast consists of microwaveable options and breads etc. The orange juice was good compared to other hotel juices.We had an enjoyable stay and would certainly stay here and other Home2 sites.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Christine F, Director of Sales at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded September 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2016</t>
+  </si>
+  <si>
+    <t>We've stayed at Home2 before in other locations and this one lived up to that experience. The room was clean and ready for us. Online check-in worked fine. Having a toaster and proper mugs, plates and glasses is much nicer than the plastic you get in other hotels. The hotel itself was quiet and we didn't hear any other guests.The only thing we didn't like were the pillows (but that usually applies to hotels) which were flat an uncomfortable (for us). Having extra pillows wouldn't have helped either.The breakfast consists of microwaveable options and breads etc. The orange juice was good compared to other hotel juices.We had an enjoyable stay and would certainly stay here and other Home2 sites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r415182307-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>415182307</t>
+  </si>
+  <si>
+    <t>09/05/2016</t>
+  </si>
+  <si>
+    <t>Very, very nice!</t>
+  </si>
+  <si>
+    <t>I read the reviews prior to booking, as usual, and made note of the one that mentioned they thought the place was not well insulated. I don't think that's the case at all; this place is brand-new and it shows. The hotel was quite full and we never heard another sound from any place else. There was also no problem with water pressure, contrary to what a reviewer had mentioned.
+When we entered the room, we were surprised at how nice it was and how well appointed. We appreciated the fact that it has a full size refrigerator, a full size microwave, lots of dishes (that all match) and other amenities, such as a privacy curtain between the couch and the bed. Very handy if one of you wants to get up and get an early start while the other sleeps in! And black out curtains that really work if you do want to sleep in! One particular noteworthy item was the air conditioner, mounted below the window: it is one of the quietest I've ever encountered and was no problem whatsoever. It is controlled by an easy to use wall-mounted digital thermostat, a plus. 
+The bed, the pillows, and the fine linen sheets made for several very good nights sleep!
+The only glitch I encountered, which I mention here so that management can pick up on it, was at the breakfast. The person in front of me had a...I read the reviews prior to booking, as usual, and made note of the one that mentioned they thought the place was not well insulated. I don't think that's the case at all; this place is brand-new and it shows. The hotel was quite full and we never heard another sound from any place else. There was also no problem with water pressure, contrary to what a reviewer had mentioned.When we entered the room, we were surprised at how nice it was and how well appointed. We appreciated the fact that it has a full size refrigerator, a full size microwave, lots of dishes (that all match) and other amenities, such as a privacy curtain between the couch and the bed. Very handy if one of you wants to get up and get an early start while the other sleeps in! And black out curtains that really work if you do want to sleep in! One particular noteworthy item was the air conditioner, mounted below the window: it is one of the quietest I've ever encountered and was no problem whatsoever. It is controlled by an easy to use wall-mounted digital thermostat, a plus. The bed, the pillows, and the fine linen sheets made for several very good nights sleep!The only glitch I encountered, which I mention here so that management can pick up on it, was at the breakfast. The person in front of me had a problem getting their waffle out of the waffle iron… It came out in many pieces, sticking to the iron. I thought perhaps they didn't do something right. When mine did the same thing, I told the employee taking care of the breakfast that it needed some Pam spray. I was told that "corporate" only allowed them to spray the griddle once a day. Ridiculous! I told that person that sometimes you have to ignore what "corporate" says in order to keep customers happy, was given the Pam spray, sprayed the waffle iron, and produced a very nice waffle, thank you very much!They've done a terrific job on this hotel, and we enjoyed our stay here very much. This is the kind of place you can come and stay at indefinitely and not be sorry, and I am happy to recommend it!MoreShow less</t>
+  </si>
+  <si>
+    <t>Christine F, Director of Sales at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded September 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2016</t>
+  </si>
+  <si>
+    <t>I read the reviews prior to booking, as usual, and made note of the one that mentioned they thought the place was not well insulated. I don't think that's the case at all; this place is brand-new and it shows. The hotel was quite full and we never heard another sound from any place else. There was also no problem with water pressure, contrary to what a reviewer had mentioned.
+When we entered the room, we were surprised at how nice it was and how well appointed. We appreciated the fact that it has a full size refrigerator, a full size microwave, lots of dishes (that all match) and other amenities, such as a privacy curtain between the couch and the bed. Very handy if one of you wants to get up and get an early start while the other sleeps in! And black out curtains that really work if you do want to sleep in! One particular noteworthy item was the air conditioner, mounted below the window: it is one of the quietest I've ever encountered and was no problem whatsoever. It is controlled by an easy to use wall-mounted digital thermostat, a plus. 
+The bed, the pillows, and the fine linen sheets made for several very good nights sleep!
+The only glitch I encountered, which I mention here so that management can pick up on it, was at the breakfast. The person in front of me had a...I read the reviews prior to booking, as usual, and made note of the one that mentioned they thought the place was not well insulated. I don't think that's the case at all; this place is brand-new and it shows. The hotel was quite full and we never heard another sound from any place else. There was also no problem with water pressure, contrary to what a reviewer had mentioned.When we entered the room, we were surprised at how nice it was and how well appointed. We appreciated the fact that it has a full size refrigerator, a full size microwave, lots of dishes (that all match) and other amenities, such as a privacy curtain between the couch and the bed. Very handy if one of you wants to get up and get an early start while the other sleeps in! And black out curtains that really work if you do want to sleep in! One particular noteworthy item was the air conditioner, mounted below the window: it is one of the quietest I've ever encountered and was no problem whatsoever. It is controlled by an easy to use wall-mounted digital thermostat, a plus. The bed, the pillows, and the fine linen sheets made for several very good nights sleep!The only glitch I encountered, which I mention here so that management can pick up on it, was at the breakfast. The person in front of me had a problem getting their waffle out of the waffle iron… It came out in many pieces, sticking to the iron. I thought perhaps they didn't do something right. When mine did the same thing, I told the employee taking care of the breakfast that it needed some Pam spray. I was told that "corporate" only allowed them to spray the griddle once a day. Ridiculous! I told that person that sometimes you have to ignore what "corporate" says in order to keep customers happy, was given the Pam spray, sprayed the waffle iron, and produced a very nice waffle, thank you very much!They've done a terrific job on this hotel, and we enjoyed our stay here very much. This is the kind of place you can come and stay at indefinitely and not be sorry, and I am happy to recommend it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r415008226-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>415008226</t>
+  </si>
+  <si>
+    <t>Modern and comfortable hotel</t>
+  </si>
+  <si>
+    <t>This hotel is new. The rooms are big and well furnished with modern furniture and a kitchen area. The breakfast buffet is pretty good. The lounge area is bright and appealing. This is a good hotel for a family stay or for a business trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>This hotel is new. The rooms are big and well furnished with modern furniture and a kitchen area. The breakfast buffet is pretty good. The lounge area is bright and appealing. This is a good hotel for a family stay or for a business trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r405495032-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>405495032</t>
+  </si>
+  <si>
+    <t>08/14/2016</t>
+  </si>
+  <si>
+    <t>Just popped in for a few days!!</t>
+  </si>
+  <si>
+    <t>Love the hip modern vibe. Breakfast was excellent and the rooms are freaking awesome! My husband and I got a one bed suite because we like more space. It ended up being perfect when some friends needed a place to crash! The sofa pulled right out and they even have the privacy curtain like in hospitals. The bathroom was nicer than my own home!!! Highly recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>Christine F, Director of Sales at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded August 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2016</t>
+  </si>
+  <si>
+    <t>Love the hip modern vibe. Breakfast was excellent and the rooms are freaking awesome! My husband and I got a one bed suite because we like more space. It ended up being perfect when some friends needed a place to crash! The sofa pulled right out and they even have the privacy curtain like in hospitals. The bathroom was nicer than my own home!!! Highly recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r404503756-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>404503756</t>
+  </si>
+  <si>
+    <t>08/12/2016</t>
+  </si>
+  <si>
+    <t>Brand new with GREAT Staff</t>
+  </si>
+  <si>
+    <t>This Home2 Suites has a most awesome staff!!!  The hotel has been open only about 2 months and is very crisp and clean and conveniently located.  I must say that Jon and Erin were exceptionally professional, polite, and very helpful getting me situated.  These two individuals absolutely appear to me to be upper management candidates.Thanks again Home2 Suites for an enjoyable stay.George M. HendrixMoreShow less</t>
+  </si>
+  <si>
+    <t>This Home2 Suites has a most awesome staff!!!  The hotel has been open only about 2 months and is very crisp and clean and conveniently located.  I must say that Jon and Erin were exceptionally professional, polite, and very helpful getting me situated.  These two individuals absolutely appear to me to be upper management candidates.Thanks again Home2 Suites for an enjoyable stay.George M. HendrixMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r396983928-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>396983928</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Nice but loud</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel. Front desk was nice, helped me get checked in quickly and and was friendly. This hotel offers full size fridge, microwave, dishwasher, plates, silverware and glasses. I love having the convenience of these items when away from home. You can even request a cooking top to cook on which was extra special since I've never seen that offered elsewhere. New carpet and bed linens. One drawback was the place doesn't seem to be insulated very well and you can literally hear everything. Doors, kids, people, other TV's etc. Another thing was the water pressure. The shower water pressure is not good at all. For it being s new location you would think they'd have taken a page from other hotel chains and installed nice shower heads with pressure to match. They also have breakfast which is another plus to staying here. Close to restaurants and other retailers. I would definitely recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2016</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel. Front desk was nice, helped me get checked in quickly and and was friendly. This hotel offers full size fridge, microwave, dishwasher, plates, silverware and glasses. I love having the convenience of these items when away from home. You can even request a cooking top to cook on which was extra special since I've never seen that offered elsewhere. New carpet and bed linens. One drawback was the place doesn't seem to be insulated very well and you can literally hear everything. Doors, kids, people, other TV's etc. Another thing was the water pressure. The shower water pressure is not good at all. For it being s new location you would think they'd have taken a page from other hotel chains and installed nice shower heads with pressure to match. They also have breakfast which is another plus to staying here. Close to restaurants and other retailers. I would definitely recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r396023713-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>396023713</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>awesome clean new place</t>
+  </si>
+  <si>
+    <t>Brand new place. We had trouble finding a hotel this night but found this one. We were so pleased with this place. The staff was so nice and the hotel was brand new. The breakfast was great. Plan to get up early to beat the crowd for breakfast:)MoreShow less</t>
+  </si>
+  <si>
+    <t>Brand new place. We had trouble finding a hotel this night but found this one. We were so pleased with this place. The staff was so nice and the hotel was brand new. The breakfast was great. Plan to get up early to beat the crowd for breakfast:)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r391354289-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>391354289</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>Nice clean and new hotel</t>
+  </si>
+  <si>
+    <t>This is a new hotel that was obviously clean, they had a few construction bugs to work out, but this would be normal. Very helpful front desk staff. Housekeeping does a good job cleaning, and will service room on weekend by request. If you have an extended stay, you can request a hot plate for cooking. My only complaint, and why I did give 5 stars, in the mornings during the week, housekeeping gathers at the one and only coffee station, I waited 5 minutes one morning while a member of the housekeeping staff prepared her tea. All the while knowing there were 4 guest in line waiting. But very nice hotel off to a good start.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2016</t>
+  </si>
+  <si>
+    <t>This is a new hotel that was obviously clean, they had a few construction bugs to work out, but this would be normal. Very helpful front desk staff. Housekeeping does a good job cleaning, and will service room on weekend by request. If you have an extended stay, you can request a hot plate for cooking. My only complaint, and why I did give 5 stars, in the mornings during the week, housekeeping gathers at the one and only coffee station, I waited 5 minutes one morning while a member of the housekeeping staff prepared her tea. All the while knowing there were 4 guest in line waiting. But very nice hotel off to a good start.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r389104237-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>389104237</t>
+  </si>
+  <si>
+    <t>07/04/2016</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>I greatly recommend this hotel. I stayed in a king bed room it had a pulled out bed which was very comfortable the king bed was also very comfortable the room included a small kitchen with microwave refrigerator dishwasher. The room was very modern and extremely comfortable. Customer service was great. Indoor pool, and free breakfast. Everything was very clean. Most definitely will stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2016</t>
+  </si>
+  <si>
+    <t>I greatly recommend this hotel. I stayed in a king bed room it had a pulled out bed which was very comfortable the king bed was also very comfortable the room included a small kitchen with microwave refrigerator dishwasher. The room was very modern and extremely comfortable. Customer service was great. Indoor pool, and free breakfast. Everything was very clean. Most definitely will stay again. More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1597,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1629,2932 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>78</v>
+      </c>
+      <c r="X6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>78</v>
+      </c>
+      <c r="X7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>108</v>
+      </c>
+      <c r="X9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" t="s">
+        <v>116</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>108</v>
+      </c>
+      <c r="X10" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>124</v>
+      </c>
+      <c r="X11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" t="s">
+        <v>131</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>132</v>
+      </c>
+      <c r="X12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>140</v>
+      </c>
+      <c r="O13" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>141</v>
+      </c>
+      <c r="X13" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>149</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>150</v>
+      </c>
+      <c r="X14" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" t="s">
+        <v>156</v>
+      </c>
+      <c r="L15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>158</v>
+      </c>
+      <c r="O15" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>159</v>
+      </c>
+      <c r="X15" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>158</v>
+      </c>
+      <c r="O16" t="s">
+        <v>116</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>167</v>
+      </c>
+      <c r="X16" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" t="s">
+        <v>173</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>175</v>
+      </c>
+      <c r="X17" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J18" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L18" t="s">
+        <v>181</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>182</v>
+      </c>
+      <c r="O18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>175</v>
+      </c>
+      <c r="X18" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>185</v>
+      </c>
+      <c r="J19" t="s">
+        <v>186</v>
+      </c>
+      <c r="K19" t="s">
+        <v>187</v>
+      </c>
+      <c r="L19" t="s">
+        <v>188</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>175</v>
+      </c>
+      <c r="X19" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" t="s">
+        <v>192</v>
+      </c>
+      <c r="K20" t="s">
+        <v>193</v>
+      </c>
+      <c r="L20" t="s">
+        <v>194</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>182</v>
+      </c>
+      <c r="O20" t="s">
+        <v>68</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>195</v>
+      </c>
+      <c r="X20" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>199</v>
+      </c>
+      <c r="J21" t="s">
+        <v>200</v>
+      </c>
+      <c r="K21" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" t="s">
+        <v>202</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>203</v>
+      </c>
+      <c r="O21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>204</v>
+      </c>
+      <c r="X21" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>208</v>
+      </c>
+      <c r="J22" t="s">
+        <v>209</v>
+      </c>
+      <c r="K22" t="s">
+        <v>210</v>
+      </c>
+      <c r="L22" t="s">
+        <v>211</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>203</v>
+      </c>
+      <c r="O22" t="s">
+        <v>68</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>212</v>
+      </c>
+      <c r="X22" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>215</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>216</v>
+      </c>
+      <c r="J23" t="s">
+        <v>217</v>
+      </c>
+      <c r="K23" t="s">
+        <v>218</v>
+      </c>
+      <c r="L23" t="s">
+        <v>219</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>149</v>
+      </c>
+      <c r="O23" t="s">
+        <v>116</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>212</v>
+      </c>
+      <c r="X23" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>221</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>222</v>
+      </c>
+      <c r="J24" t="s">
+        <v>223</v>
+      </c>
+      <c r="K24" t="s">
+        <v>224</v>
+      </c>
+      <c r="L24" t="s">
+        <v>225</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>149</v>
+      </c>
+      <c r="O24" t="s">
+        <v>59</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>212</v>
+      </c>
+      <c r="X24" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>227</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>228</v>
+      </c>
+      <c r="J25" t="s">
+        <v>229</v>
+      </c>
+      <c r="K25" t="s">
+        <v>230</v>
+      </c>
+      <c r="L25" t="s">
+        <v>231</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>149</v>
+      </c>
+      <c r="O25" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>212</v>
+      </c>
+      <c r="X25" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>233</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>234</v>
+      </c>
+      <c r="J26" t="s">
+        <v>235</v>
+      </c>
+      <c r="K26" t="s">
+        <v>236</v>
+      </c>
+      <c r="L26" t="s">
+        <v>237</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>238</v>
+      </c>
+      <c r="O26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>239</v>
+      </c>
+      <c r="X26" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>242</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>243</v>
+      </c>
+      <c r="J27" t="s">
+        <v>244</v>
+      </c>
+      <c r="K27" t="s">
+        <v>245</v>
+      </c>
+      <c r="L27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>238</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>239</v>
+      </c>
+      <c r="X27" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>248</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>249</v>
+      </c>
+      <c r="J28" t="s">
+        <v>250</v>
+      </c>
+      <c r="K28" t="s">
+        <v>251</v>
+      </c>
+      <c r="L28" t="s">
+        <v>252</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>238</v>
+      </c>
+      <c r="O28" t="s">
+        <v>68</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>239</v>
+      </c>
+      <c r="X28" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>254</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>255</v>
+      </c>
+      <c r="J29" t="s">
+        <v>256</v>
+      </c>
+      <c r="K29" t="s">
+        <v>257</v>
+      </c>
+      <c r="L29" t="s">
+        <v>258</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>259</v>
+      </c>
+      <c r="O29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>260</v>
+      </c>
+      <c r="X29" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>263</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>264</v>
+      </c>
+      <c r="J30" t="s">
+        <v>265</v>
+      </c>
+      <c r="K30" t="s">
+        <v>266</v>
+      </c>
+      <c r="L30" t="s">
+        <v>267</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>259</v>
+      </c>
+      <c r="O30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>268</v>
+      </c>
+      <c r="X30" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>271</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>272</v>
+      </c>
+      <c r="J31" t="s">
+        <v>273</v>
+      </c>
+      <c r="K31" t="s">
+        <v>274</v>
+      </c>
+      <c r="L31" t="s">
+        <v>275</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>259</v>
+      </c>
+      <c r="O31" t="s">
+        <v>68</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>276</v>
+      </c>
+      <c r="X31" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>279</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>280</v>
+      </c>
+      <c r="J32" t="s">
+        <v>281</v>
+      </c>
+      <c r="K32" t="s">
+        <v>282</v>
+      </c>
+      <c r="L32" t="s">
+        <v>283</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>284</v>
+      </c>
+      <c r="O32" t="s">
+        <v>116</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>285</v>
+      </c>
+      <c r="X32" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>288</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>289</v>
+      </c>
+      <c r="J33" t="s">
+        <v>290</v>
+      </c>
+      <c r="K33" t="s">
+        <v>291</v>
+      </c>
+      <c r="L33" t="s">
+        <v>292</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>293</v>
+      </c>
+      <c r="O33" t="s">
+        <v>68</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>294</v>
+      </c>
+      <c r="X33" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>297</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>298</v>
+      </c>
+      <c r="J34" t="s">
+        <v>299</v>
+      </c>
+      <c r="K34" t="s">
+        <v>300</v>
+      </c>
+      <c r="L34" t="s">
+        <v>301</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>293</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>294</v>
+      </c>
+      <c r="X34" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>303</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>304</v>
+      </c>
+      <c r="J35" t="s">
+        <v>305</v>
+      </c>
+      <c r="K35" t="s">
+        <v>306</v>
+      </c>
+      <c r="L35" t="s">
+        <v>307</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>293</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>308</v>
+      </c>
+      <c r="X35" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>311</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>312</v>
+      </c>
+      <c r="J36" t="s">
+        <v>313</v>
+      </c>
+      <c r="K36" t="s">
+        <v>314</v>
+      </c>
+      <c r="L36" t="s">
+        <v>315</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>293</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>316</v>
+      </c>
+      <c r="X36" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>319</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>320</v>
+      </c>
+      <c r="J37" t="s">
+        <v>321</v>
+      </c>
+      <c r="K37" t="s">
+        <v>322</v>
+      </c>
+      <c r="L37" t="s">
+        <v>323</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>293</v>
+      </c>
+      <c r="O37" t="s">
+        <v>116</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>316</v>
+      </c>
+      <c r="X37" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>325</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>326</v>
+      </c>
+      <c r="J38" t="s">
+        <v>327</v>
+      </c>
+      <c r="K38" t="s">
+        <v>328</v>
+      </c>
+      <c r="L38" t="s">
+        <v>329</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>330</v>
+      </c>
+      <c r="O38" t="s">
+        <v>59</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>331</v>
+      </c>
+      <c r="X38" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>334</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>335</v>
+      </c>
+      <c r="J39" t="s">
+        <v>336</v>
+      </c>
+      <c r="K39" t="s">
+        <v>337</v>
+      </c>
+      <c r="L39" t="s">
+        <v>338</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>330</v>
+      </c>
+      <c r="O39" t="s">
+        <v>59</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>339</v>
+      </c>
+      <c r="X39" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>342</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>343</v>
+      </c>
+      <c r="J40" t="s">
+        <v>336</v>
+      </c>
+      <c r="K40" t="s">
+        <v>344</v>
+      </c>
+      <c r="L40" t="s">
+        <v>345</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>346</v>
+      </c>
+      <c r="O40" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>339</v>
+      </c>
+      <c r="X40" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>348</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>349</v>
+      </c>
+      <c r="J41" t="s">
+        <v>350</v>
+      </c>
+      <c r="K41" t="s">
+        <v>351</v>
+      </c>
+      <c r="L41" t="s">
+        <v>352</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>346</v>
+      </c>
+      <c r="O41" t="s">
+        <v>59</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>353</v>
+      </c>
+      <c r="X41" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>356</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>357</v>
+      </c>
+      <c r="J42" t="s">
+        <v>358</v>
+      </c>
+      <c r="K42" t="s">
+        <v>359</v>
+      </c>
+      <c r="L42" t="s">
+        <v>360</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>346</v>
+      </c>
+      <c r="O42" t="s">
+        <v>52</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>353</v>
+      </c>
+      <c r="X42" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>362</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>363</v>
+      </c>
+      <c r="J43" t="s">
+        <v>364</v>
+      </c>
+      <c r="K43" t="s">
+        <v>365</v>
+      </c>
+      <c r="L43" t="s">
+        <v>366</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>367</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>368</v>
+      </c>
+      <c r="X43" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>371</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>372</v>
+      </c>
+      <c r="J44" t="s">
+        <v>373</v>
+      </c>
+      <c r="K44" t="s">
+        <v>374</v>
+      </c>
+      <c r="L44" t="s">
+        <v>375</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>367</v>
+      </c>
+      <c r="O44" t="s">
+        <v>59</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>368</v>
+      </c>
+      <c r="X44" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>377</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>378</v>
+      </c>
+      <c r="J45" t="s">
+        <v>379</v>
+      </c>
+      <c r="K45" t="s">
+        <v>380</v>
+      </c>
+      <c r="L45" t="s">
+        <v>381</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>367</v>
+      </c>
+      <c r="O45" t="s">
+        <v>52</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>382</v>
+      </c>
+      <c r="X45" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>385</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>386</v>
+      </c>
+      <c r="J46" t="s">
+        <v>387</v>
+      </c>
+      <c r="K46" t="s">
+        <v>388</v>
+      </c>
+      <c r="L46" t="s">
+        <v>389</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>390</v>
+      </c>
+      <c r="O46" t="s">
+        <v>68</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>391</v>
+      </c>
+      <c r="X46" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>393</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_144.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_144.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="647">
   <si>
     <t>STR#</t>
   </si>
@@ -147,18 +147,48 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/03/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r611688723-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>33471</t>
+  </si>
+  <si>
+    <t>9985040</t>
+  </si>
+  <si>
+    <t>611688723</t>
+  </si>
+  <si>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>Clean and convenient</t>
+  </si>
+  <si>
+    <t>This is a good hotel for visiting families.  I stayed here when I was moving to Highlands Ranch and have sense had family members stay their when they visited us.  It is clean, close to main roads for easy access.  Breakfast is not the best, but it is at least a typical hotel breakfast bar.  The staff was nice and everything seemed very clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Angela N, General Manager at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded 5 days ago</t>
+  </si>
+  <si>
+    <t>Responded 5 days ago</t>
+  </si>
+  <si>
+    <t>This is a good hotel for visiting families.  I stayed here when I was moving to Highlands Ranch and have sense had family members stay their when they visited us.  It is clean, close to main roads for easy access.  Breakfast is not the best, but it is at least a typical hotel breakfast bar.  The staff was nice and everything seemed very clean.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r602087600-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
   </si>
   <si>
-    <t>33471</t>
-  </si>
-  <si>
-    <t>9985040</t>
-  </si>
-  <si>
     <t>602087600</t>
   </si>
   <si>
@@ -168,7 +198,7 @@
     <t>Excellent stay</t>
   </si>
   <si>
-    <t xml:space="preserve">My first time staying at this location. Very impressed!  Thank you Laura for your kindness in contributing to a great experience. See y’all very soon. The gym is roomy with all equipment you’d hope for. Room was very clean. Bed very comfortable. </t>
+    <t>My first time staying at this location. Very impressed!  Thank you Laura for your kindness in contributing to a great experience. See y’all very soon. The gym is roomy with all equipment you’d hope for. Room was very clean. Bed very comfortable. MoreShow less</t>
   </si>
   <si>
     <t>August 2018</t>
@@ -177,6 +207,114 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Angela N, General Manager at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>My first time staying at this location. Very impressed!  Thank you Laura for your kindness in contributing to a great experience. See y’all very soon. The gym is roomy with all equipment you’d hope for. Room was very clean. Bed very comfortable. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r604137625-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>604137625</t>
+  </si>
+  <si>
+    <t>08/07/2018</t>
+  </si>
+  <si>
+    <t>First time</t>
+  </si>
+  <si>
+    <t>This was my first time staying in this hotel and also this brand of Hilton.  Had meeting at corporate and this was within walking distance.  Room was quite large and well designed (little too much with cabinets on on wall with sink and fridge), overall very nice layout.  Would recommend if your staying in the area aa within walking distance of food.  The front desk yeam were very nice and professional.  Will stay again when in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>Angela N, General Manager at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>This was my first time staying in this hotel and also this brand of Hilton.  Had meeting at corporate and this was within walking distance.  Room was quite large and well designed (little too much with cabinets on on wall with sink and fridge), overall very nice layout.  Would recommend if your staying in the area aa within walking distance of food.  The front desk yeam were very nice and professional.  Will stay again when in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r602813128-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>602813128</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>Beautiful Suites Expensive Pet Fee</t>
+  </si>
+  <si>
+    <t>This hotel suite was $146 per night which seemed a reasonable rate especially since they stated it was a pet friendly hotel and we would arrive at 10pm and depart at 6am.   We had booked 2 rooms in advance however when we arrived they only had one room reserved for us. That fact made our stay a little awkward. Also unfortunately we were not made aware of the $75 non-refundable pet  fee for one night or the fact that “on the weekends” breakfast is not available until 6:30am. The breakfast  time delayed our departure, however included a very nice selection and the employees were so pleasant. The suite had everything one might want with the exception of regular coffee, our room only had decaf coffee packets. With  these surprises in mind, I would not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel suite was $146 per night which seemed a reasonable rate especially since they stated it was a pet friendly hotel and we would arrive at 10pm and depart at 6am.   We had booked 2 rooms in advance however when we arrived they only had one room reserved for us. That fact made our stay a little awkward. Also unfortunately we were not made aware of the $75 non-refundable pet  fee for one night or the fact that “on the weekends” breakfast is not available until 6:30am. The breakfast  time delayed our departure, however included a very nice selection and the employees were so pleasant. The suite had everything one might want with the exception of regular coffee, our room only had decaf coffee packets. With  these surprises in mind, I would not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r602249863-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>602249863</t>
+  </si>
+  <si>
+    <t>Always great...especially for families</t>
+  </si>
+  <si>
+    <t>We love Home2Suites. We especially like the full sizeFridge and home like amenities. The decor is modern and the room accommodates a family of 5. The breakfasts options are plentiful and the staff at this property were friendly. This hotel is close to shopping and dining. Great hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>We love Home2Suites. We especially like the full sizeFridge and home like amenities. The decor is modern and the room accommodates a family of 5. The breakfasts options are plentiful and the staff at this property were friendly. This hotel is close to shopping and dining. Great hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r595973525-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>595973525</t>
+  </si>
+  <si>
+    <t>07/13/2018</t>
+  </si>
+  <si>
+    <t>Lovely people</t>
+  </si>
+  <si>
+    <t>Great service and area. I came for business meetings and found everything I needed within a few miles from the hotel. It’s a nice safe area that seems new and clean. A side walk area provides a nice walk for the dogs.MoreShow less</t>
+  </si>
+  <si>
+    <t>Angela N, General Manager at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded July 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2018</t>
+  </si>
+  <si>
+    <t>Great service and area. I came for business meetings and found everything I needed within a few miles from the hotel. It’s a nice safe area that seems new and clean. A side walk area provides a nice walk for the dogs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r595817123-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>595817123</t>
+  </si>
+  <si>
+    <t>Very Impressive</t>
+  </si>
+  <si>
+    <t>This was my fist stay in a Home2. I have to say I was impressed. The people working here are very nice. The entire place is brand new and well maintained. They have a great pool that is open till 11PM. They have laundry facilities. The room is huge and has a kitchenette in it. I really enjoyed my stay here and I will be looking for Home2 during my travels from now on! Highly recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>This was my fist stay in a Home2. I have to say I was impressed. The people working here are very nice. The entire place is brand new and well maintained. They have a great pool that is open till 11PM. They have laundry facilities. The room is huge and has a kitchenette in it. I really enjoyed my stay here and I will be looking for Home2 during my travels from now on! Highly recommended.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r595720823-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
   </si>
   <si>
@@ -192,18 +330,9 @@
     <t>This was our first time staying at a Home2 and we were blown away!  Our suite was very comfortable and the entire hotel felt very clean.  Boy were we impressed!  Everything about it was very convenient.  We looked to stay in a Home2 the rest of our trip.MoreShow less</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>Angela N, General Manager at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
-  </si>
-  <si>
     <t>This was our first time staying at a Home2 and we were blown away!  Our suite was very comfortable and the entire hotel felt very clean.  Boy were we impressed!  Everything about it was very convenient.  We looked to stay in a Home2 the rest of our trip.More</t>
   </si>
   <si>
@@ -222,18 +351,69 @@
     <t>Our family stayed one night at this hotel for the first time on 6/31/2018 for my son’s baseball tournament in Littleton. It’s so nice that the hotel offered a refrigerator and small kitchen as well as a place outdoors to grill for our team dinner. We felt that the room was hardly cleaned from the last guests. Starting from crumbs on the floor as well as a dried piece of pepperoni- gross. There was hair in the shower and marks that could be scrubbed off. The mattress pad on the pullout couch was dirty and had been previously used. The cushions on the couch were stained as well.There was a small mark on the King size bedspread that should have been replaced with a clean one. Attention to detail is key when cleaning a hotel room for me. Overall, it was a less than acceptable experience and glad it was just for one night. We would consider staying there again if the rooms were cleaner since the location is good.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Angela N, General Manager at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded 4 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 4 weeks ago</t>
+    <t>Angela N, General Manager at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded July 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2018</t>
   </si>
   <si>
     <t>Our family stayed one night at this hotel for the first time on 6/31/2018 for my son’s baseball tournament in Littleton. It’s so nice that the hotel offered a refrigerator and small kitchen as well as a place outdoors to grill for our team dinner. We felt that the room was hardly cleaned from the last guests. Starting from crumbs on the floor as well as a dried piece of pepperoni- gross. There was hair in the shower and marks that could be scrubbed off. The mattress pad on the pullout couch was dirty and had been previously used. The cushions on the couch were stained as well.There was a small mark on the King size bedspread that should have been replaced with a clean one. Attention to detail is key when cleaning a hotel room for me. Overall, it was a less than acceptable experience and glad it was just for one night. We would consider staying there again if the rooms were cleaner since the location is good.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r588470185-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>588470185</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>My first time at a Home2 location</t>
+  </si>
+  <si>
+    <t>This facility is new and welcoming.  The staff were also pleasant.  My room was bigger and better equipped than the efficiency apartment I once called home.  My business trip was short, so I didn't have a chance to use many of the amenities.  Next time I need to travel to this area for business or pleasure, this is top of my list.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Angela N, General Manager at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded June 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2018</t>
+  </si>
+  <si>
+    <t>This facility is new and welcoming.  The staff were also pleasant.  My room was bigger and better equipped than the efficiency apartment I once called home.  My business trip was short, so I didn't have a chance to use many of the amenities.  Next time I need to travel to this area for business or pleasure, this is top of my list.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r581840135-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>581840135</t>
+  </si>
+  <si>
+    <t>05/21/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False fire alarm evacuates everyone </t>
+  </si>
+  <si>
+    <t>I don’t enjoy being woken up for a false fire alarm. Maybe just a random occurrence but I’ll pick another hotel next time. If it would have been real - it took the fire department 15 minutes to get here.  MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Angela N, General Manager at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded May 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2018</t>
+  </si>
+  <si>
+    <t>I don’t enjoy being woken up for a false fire alarm. Maybe just a random occurrence but I’ll pick another hotel next time. If it would have been real - it took the fire department 15 minutes to get here.  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r577238336-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
   </si>
   <si>
@@ -249,9 +429,6 @@
     <t>This new, or new looking, hotel is in a great location! The front desk staff is friendly and went out of their way to help. Literally every aspect of the hotel is great, from a large room to the views to property being clean and well maintained MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
     <t>Angela N, General Manager at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded May 2, 2018</t>
   </si>
   <si>
@@ -300,6 +477,63 @@
     <t>Stayed here several nights to attend a family event held in the area.  Location was good, room was clean, beds were comfortable and the clerks were all friendly and helpful in recommending restaurants nearby.  Breakfast was typical, quite a few choices and had some prepared items that you could microwave. Would definitely stay here again.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r569108397-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>569108397</t>
+  </si>
+  <si>
+    <t>03/27/2018</t>
+  </si>
+  <si>
+    <t>Nice enough</t>
+  </si>
+  <si>
+    <t>Stayed at Home2Suites while visiting family in the Denver area. They had a large suite available to fit my own family which was nice.  The room was typical, basic but clean and the bathroom was a good size, fully-stocked kitchenette with microwave, fridge and dishwasher, dishes,  etc.  Disappointed there was no hot tub at this hotel because it was in a business park and it seemed to be mostly adults staying... the indoor pool was good size, freezing cold water when we were there so we didn't last long. Good fitness room with adequate equipment... could add another dryer or a swimsuit wringer near the pool as there was a big lineup for laundry.  Breakfast at this hotel could be vastly improved. The offerings were slim,  not very tasty.  Watered down juice,  microwave sandwiches,  one waffle-maker, limited seating,  grumpy staff... On our second day we skipped it, had to make extra time and went to Panera Bread and yes, I wasn't thrilled as I specifically chose a hotel with breakfast to feed my crew. Otherwise a nice enough place to stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Angela N, General Manager at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded March 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2018</t>
+  </si>
+  <si>
+    <t>Stayed at Home2Suites while visiting family in the Denver area. They had a large suite available to fit my own family which was nice.  The room was typical, basic but clean and the bathroom was a good size, fully-stocked kitchenette with microwave, fridge and dishwasher, dishes,  etc.  Disappointed there was no hot tub at this hotel because it was in a business park and it seemed to be mostly adults staying... the indoor pool was good size, freezing cold water when we were there so we didn't last long. Good fitness room with adequate equipment... could add another dryer or a swimsuit wringer near the pool as there was a big lineup for laundry.  Breakfast at this hotel could be vastly improved. The offerings were slim,  not very tasty.  Watered down juice,  microwave sandwiches,  one waffle-maker, limited seating,  grumpy staff... On our second day we skipped it, had to make extra time and went to Panera Bread and yes, I wasn't thrilled as I specifically chose a hotel with breakfast to feed my crew. Otherwise a nice enough place to stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r567925763-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>567925763</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>Another great stay</t>
+  </si>
+  <si>
+    <t>When I arrived it was later than my usual arrival and I was in no mood to go anywhere.  The front desk helped me with menus from local delivery places and I went to my very comfortable room.  I do like this hotel because it is cheaper than the Hilton up the road and the room is way more outfitted.  The full fridge and plates etc make staying there enjoyable.  My first night my sleep was disturbed by the room next to me's loud talking which seemed to be coming from under the adjoining room door.  Like it was coming from under the door.  I think something is missing in the door jam.  I put in some ear plugs and went to sleep - next night the person was gone and no problem.  Breakfast was awesome and the coffee is excellent.  Highly recommend this place but not if you are used to have the room cleaned everyday as the weekends you have to ask for itMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Christine F, Director of Sales at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded March 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2018</t>
+  </si>
+  <si>
+    <t>When I arrived it was later than my usual arrival and I was in no mood to go anywhere.  The front desk helped me with menus from local delivery places and I went to my very comfortable room.  I do like this hotel because it is cheaper than the Hilton up the road and the room is way more outfitted.  The full fridge and plates etc make staying there enjoyable.  My first night my sleep was disturbed by the room next to me's loud talking which seemed to be coming from under the adjoining room door.  Like it was coming from under the door.  I think something is missing in the door jam.  I put in some ear plugs and went to sleep - next night the person was gone and no problem.  Breakfast was awesome and the coffee is excellent.  Highly recommend this place but not if you are used to have the room cleaned everyday as the weekends you have to ask for itMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r566857109-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
   </si>
   <si>
@@ -315,9 +549,6 @@
     <t>Copy of what I emailed the General Manager:I just wanted to take a moment to praises your hotel and staff.  I was there with my husband, son, and dog for 9 nights while my sewer pipe was being fixed.  The hotel was clean, well stocked, great bedding, and very comfortable for our long stay.  The staff was even better.  The manager (sorry I don't know her name) was extremely understanding about an issue we had with our dog and another guest's dog.  She was courteous and very accommodating.  Sara at the front desk was always there to help with anything we needed with a smile on her face.  Brenda and Manuela in housekeeping were so sweet and helpful.  Every day they checked on us and got anything we needed.  They spoiled my dog Daisy and it was a joy to talk to them everyday.  I am so appreciative of making our stay so pleasant during a difficult time.  When my family or friends come in town your hotel will be the first that I recommend.MoreShow less</t>
   </si>
   <si>
-    <t>March 2018</t>
-  </si>
-  <si>
     <t>Christine F, Director of Sales at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded March 19, 2018</t>
   </si>
   <si>
@@ -372,6 +603,51 @@
     <t>I stayed here over Thursday and Friday. I'm a Hilton team member so I get really good rates for rooms. However when we checked in, the front desk agent, her name started with a K, never told us anything. Not even where the elevators were. The hotel itself was wonderful but the guest service was definitely lacking.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r560113482-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>560113482</t>
+  </si>
+  <si>
+    <t>02/12/2018</t>
+  </si>
+  <si>
+    <t>Dirty room</t>
+  </si>
+  <si>
+    <t>We had stayed here on more than one occasion. But I doubt I will go back after the last stay. We checked into the room to find the kitchenette had not been cleaned properly - food still in the refrigerator, crumbs on the counter, coffee grounds in the coffee pot, and dishes that had not been ran thru the dishwasher. We told the staff and they said they would address it. But never did. We also requested a hot plate, which was also dirty. We came back here because the staff is friendly, it is convenient to restaurants and stores, and it is a newer hotel. But I doubt we will go back any time soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>Angela N, General Manager at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded February 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2018</t>
+  </si>
+  <si>
+    <t>We had stayed here on more than one occasion. But I doubt I will go back after the last stay. We checked into the room to find the kitchenette had not been cleaned properly - food still in the refrigerator, crumbs on the counter, coffee grounds in the coffee pot, and dishes that had not been ran thru the dishwasher. We told the staff and they said they would address it. But never did. We also requested a hot plate, which was also dirty. We came back here because the staff is friendly, it is convenient to restaurants and stores, and it is a newer hotel. But I doubt we will go back any time soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r558368075-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>558368075</t>
+  </si>
+  <si>
+    <t>02/04/2018</t>
+  </si>
+  <si>
+    <t>Very nice room to work out of</t>
+  </si>
+  <si>
+    <t>The hotel is newer, so things are clean and in nice shape and the staff was friendly. The thing I liked most about it was that they rooms are setup nicely to work out of.The chair at the desk was all-day comfortable and the room is nicely laid out. The only reason for the 4 stars. is that the breakfast is mostly microwavable items, but the Sriracha eggs were actually pretty good.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>The hotel is newer, so things are clean and in nice shape and the staff was friendly. The thing I liked most about it was that they rooms are setup nicely to work out of.The chair at the desk was all-day comfortable and the room is nicely laid out. The only reason for the 4 stars. is that the breakfast is mostly microwavable items, but the Sriracha eggs were actually pretty good.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r556205736-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
   </si>
   <si>
@@ -387,9 +663,6 @@
     <t>The hotel was great very new but the problem they allow the pets to be in they are very noisy. The brake fast was very simple. I love this place and if you are ok with pets you will enjoy your stay. Staff very helpful to give more information about snow road status and they check my car tire to make sure it is safe to be drived in snow. MoreShow less</t>
   </si>
   <si>
-    <t>January 2018</t>
-  </si>
-  <si>
     <t>Angela N, General Manager at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded January 31, 2018</t>
   </si>
   <si>
@@ -450,6 +723,42 @@
     <t>I have an opportunity to travel the country.  I stay at many hotels and I have a couple that are my go to list.  Home2 Suites in Highlands Ranch is one of those hotels.  Great guest service for me, my family and even my dog.  I also love that when I stay there I never have to worry if my living space has been clean.  I can not say that about most hotels.  Because of the staff at H2Suites, we will be back many times!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r545372013-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>545372013</t>
+  </si>
+  <si>
+    <t>12/05/2017</t>
+  </si>
+  <si>
+    <t>New but needs some attention</t>
+  </si>
+  <si>
+    <t>I kind of understand the business model of Home2, but I don't care for it.  I prefer a hotel that cleans the room everyday.  Our room did not appear to have been vacuumed very well before we checked in and the hallways get a little trashy over the weekend.  The breakfast was to processed and lacked flavor.  Good coffee, nice lounge, a well-stocked mini-store, and really nice desk staff.  I had a problem with my reservation - I messed up - and they fixed it right away.MoreShow less</t>
+  </si>
+  <si>
+    <t>I kind of understand the business model of Home2, but I don't care for it.  I prefer a hotel that cleans the room everyday.  Our room did not appear to have been vacuumed very well before we checked in and the hallways get a little trashy over the weekend.  The breakfast was to processed and lacked flavor.  Good coffee, nice lounge, a well-stocked mini-store, and really nice desk staff.  I had a problem with my reservation - I messed up - and they fixed it right away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r543717443-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>543717443</t>
+  </si>
+  <si>
+    <t>11/27/2017</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>Very comfortable room for 3 adults for a week...Generous space for hanging clothes, drawers, suitcases, counter space in bathroom, etc. So many touches that enhanced convenience: Lots of outlets, full-length mirror, privacy curtain between beds and couch, desk that expands on rollers, etc. Kitchen was great too: large fridge, dishwasher and microwave.  Staff was friendly and attentive to our needs. Will definitely come back!MoreShow less</t>
+  </si>
+  <si>
+    <t>Very comfortable room for 3 adults for a week...Generous space for hanging clothes, drawers, suitcases, counter space in bathroom, etc. So many touches that enhanced convenience: Lots of outlets, full-length mirror, privacy curtain between beds and couch, desk that expands on rollers, etc. Kitchen was great too: large fridge, dishwasher and microwave.  Staff was friendly and attentive to our needs. Will definitely come back!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r533486556-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
   </si>
   <si>
@@ -525,6 +834,48 @@
     <t>The room was well appointed, equiped kitchenette with microwave, large refrigerator/ freezer, sink, and dishwasher. The area was quite and sleep quality was good. All staff members were very helpful. I questioned the cleanliness of the room when I saw dark spots in the shower. The wall light on one side of the bed did not work but was repaired after I mentioned it to the desk worker (the second time I told her), and the strip at the bottom of the door was partly torn off allowing light to seep under the door making sleep hard.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r517216569-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>517216569</t>
+  </si>
+  <si>
+    <t>08/24/2017</t>
+  </si>
+  <si>
+    <t>Very pleasant stay. Great staff!!</t>
+  </si>
+  <si>
+    <t>We spent 1 week at this property. I would highly recommend staying here. They staff and front desk could not do enough and made us feel right at home for the entire stay. Bravo H2S!!We will be staying there again during our next visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>We spent 1 week at this property. I would highly recommend staying here. They staff and front desk could not do enough and made us feel right at home for the entire stay. Bravo H2S!!We will be staying there again during our next visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r516288927-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>516288927</t>
+  </si>
+  <si>
+    <t>08/22/2017</t>
+  </si>
+  <si>
+    <t>Very nice, clean and dog friendly</t>
+  </si>
+  <si>
+    <t>Comfortable beds, friendly staff and one of the most important things for us was this hotel is dog friendly.  Breakfast was ok, I would consider it typical for a hotel in this price range.  We would certainly stay here again as well as recommend any of our family to stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Comfortable beds, friendly staff and one of the most important things for us was this hotel is dog friendly.  Breakfast was ok, I would consider it typical for a hotel in this price range.  We would certainly stay here again as well as recommend any of our family to stay here.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r511995536-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
   </si>
   <si>
@@ -540,9 +891,6 @@
     <t>I reserved a suite at Home2 so I could be near my grandaughter and her family.  My two daughters and two grandsons were with me.  We drove a rental car from the airport.  The suite was beautiful with two big queen beds and a room divider with a sleeper couch for the boys.  10 were allowed in the indoor pool so my CO granddaughter brought her four to visit for a quick swim.  The staff was wonderful to us, especially Sherri who helped me with a delicious self-serve buffet Breakfast that was included.  We stayed two enjoyable nights, used the laundry machines, and enjoyed visiting on the two beautiful outdoor patios.  I was charged half of what a tiny NYC hotel room would have cost without any of the amenities.MoreShow less</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
     <t>Christine F, Director of Sales at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded August 18, 2017</t>
   </si>
   <si>
@@ -564,9 +912,6 @@
     <t>This brand spanking new suites hotel is thoughtfully appointed, well staffed, and very comfortable. The location near C-470 was very convenient. We went during the soft opening and got a great rate which sweetened the experience. The breakfast was pretty good, but not everyone in Colorado likes to eat turkey and egg sandwiches for breakfast--how about including the more decadent ham, sausage, or bacon varieties? The buckwheat waffles were tasty.MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>This brand spanking new suites hotel is thoughtfully appointed, well staffed, and very comfortable. The location near C-470 was very convenient. We went during the soft opening and got a great rate which sweetened the experience. The breakfast was pretty good, but not everyone in Colorado likes to eat turkey and egg sandwiches for breakfast--how about including the more decadent ham, sausage, or bacon varieties? The buckwheat waffles were tasty.More</t>
   </si>
   <si>
@@ -588,6 +933,48 @@
     <t>New, upscale, modern property. Conveniently located to restaurants, shopping. Complementary coffee and "on the go" type breakfast. Nice outdoor spaces with gas fireplace! Thank you to John at the front desk! We had a special request and he exceeded our expectations! More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r505968752-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>505968752</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Great hotel for business travel</t>
+  </si>
+  <si>
+    <t>This hotel is about perfect for staying at while getting businesses done in the south Metro area.Room was immaculate, very large and configured perfectly to work on the laptop and watch the news on the TV (which was HD and had a ton of cable and local channels). Sara at the front desk went out of her way to make sure I had everything I needed and answered my questions with ease and a smile.Not within walking distance of restaurants, but within 10 minutes of driving, about 5 great options for dinner. Lots of delivery options.The breakfast area is a little bit limited for indoor seating, but they have a fantastic outdoor patio area.And priced under other hotels in the area, is my new 'go to' for the Littleton/Englewood/highlands Ranch area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Christine F, Director of Sales at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded July 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is about perfect for staying at while getting businesses done in the south Metro area.Room was immaculate, very large and configured perfectly to work on the laptop and watch the news on the TV (which was HD and had a ton of cable and local channels). Sara at the front desk went out of her way to make sure I had everything I needed and answered my questions with ease and a smile.Not within walking distance of restaurants, but within 10 minutes of driving, about 5 great options for dinner. Lots of delivery options.The breakfast area is a little bit limited for indoor seating, but they have a fantastic outdoor patio area.And priced under other hotels in the area, is my new 'go to' for the Littleton/Englewood/highlands Ranch area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r503650344-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>503650344</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Colorado Vacation</t>
+  </si>
+  <si>
+    <t>We really liked the Home 2 Suites.  Very clean, functional rooms!  The staff was very friendly and helpful. The location was wonderful for our day trips to the foothills and to Colorado Springs.  We loved all the little nooks to store our things.  The room was very functional.  The beds were very comfy.  This hotel is only 1 year old, so it was very clean!MoreShow less</t>
+  </si>
+  <si>
+    <t>We really liked the Home 2 Suites.  Very clean, functional rooms!  The staff was very friendly and helpful. The location was wonderful for our day trips to the foothills and to Colorado Springs.  We loved all the little nooks to store our things.  The room was very functional.  The beds were very comfy.  This hotel is only 1 year old, so it was very clean!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r503210267-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
   </si>
   <si>
@@ -603,12 +990,6 @@
     <t>Hotel is clean and the staff is friendly when you come across them. The breakfast is so a bit on the lean side. Enough that I decided it was better to go out for breakfast. If you want microwaved egg sandwiches or bagles, you are good to go. The reason I gave them a 3 is that they don't do a very good job controlling their guests. We had kids racing down the hallways late at night every night we were there. Not fun when you just doze off and then hear kids (we have kids so it's not a kid thing) racing (ready set go) at midnight. This alone would give them a 4, but they get a 3 for how they handled the fire alarm evacuation. Someone got a bagel stuck the toaster that set off the fire alarm and the building had to be evacuated around 7:30 am. OK, it happens, but here is my issue. Not acknowledgement to the guests at all after the event. No sorry of the inconvenience. No explanation of what happened. NOTHING. You would think they would have a staff member at the door when they let you back in explaining the issue, or at least a check out give you a "I am Sorry.". I am not looking for a discount, but at least let me know you acknowledge the event and that you are sorry I got drug out of...Hotel is clean and the staff is friendly when you come across them. The breakfast is so a bit on the lean side. Enough that I decided it was better to go out for breakfast. If you want microwaved egg sandwiches or bagles, you are good to go. The reason I gave them a 3 is that they don't do a very good job controlling their guests. We had kids racing down the hallways late at night every night we were there. Not fun when you just doze off and then hear kids (we have kids so it's not a kid thing) racing (ready set go) at midnight. This alone would give them a 4, but they get a 3 for how they handled the fire alarm evacuation. Someone got a bagel stuck the toaster that set off the fire alarm and the building had to be evacuated around 7:30 am. OK, it happens, but here is my issue. Not acknowledgement to the guests at all after the event. No sorry of the inconvenience. No explanation of what happened. NOTHING. You would think they would have a staff member at the door when they let you back in explaining the issue, or at least a check out give you a "I am Sorry.". I am not looking for a discount, but at least let me know you acknowledge the event and that you are sorry I got drug out of bed at 7:30 am when I am on vacation time. Again. Clean hotel, good convenient location, but I can't go higher than a 3 after the above two events.MoreShow less</t>
   </si>
   <si>
-    <t>Christine F, Director of Sales at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded July 28, 2017</t>
-  </si>
-  <si>
-    <t>Responded July 28, 2017</t>
-  </si>
-  <si>
     <t>Hotel is clean and the staff is friendly when you come across them. The breakfast is so a bit on the lean side. Enough that I decided it was better to go out for breakfast. If you want microwaved egg sandwiches or bagles, you are good to go. The reason I gave them a 3 is that they don't do a very good job controlling their guests. We had kids racing down the hallways late at night every night we were there. Not fun when you just doze off and then hear kids (we have kids so it's not a kid thing) racing (ready set go) at midnight. This alone would give them a 4, but they get a 3 for how they handled the fire alarm evacuation. Someone got a bagel stuck the toaster that set off the fire alarm and the building had to be evacuated around 7:30 am. OK, it happens, but here is my issue. Not acknowledgement to the guests at all after the event. No sorry of the inconvenience. No explanation of what happened. NOTHING. You would think they would have a staff member at the door when they let you back in explaining the issue, or at least a check out give you a "I am Sorry.". I am not looking for a discount, but at least let me know you acknowledge the event and that you are sorry I got drug out of...Hotel is clean and the staff is friendly when you come across them. The breakfast is so a bit on the lean side. Enough that I decided it was better to go out for breakfast. If you want microwaved egg sandwiches or bagles, you are good to go. The reason I gave them a 3 is that they don't do a very good job controlling their guests. We had kids racing down the hallways late at night every night we were there. Not fun when you just doze off and then hear kids (we have kids so it's not a kid thing) racing (ready set go) at midnight. This alone would give them a 4, but they get a 3 for how they handled the fire alarm evacuation. Someone got a bagel stuck the toaster that set off the fire alarm and the building had to be evacuated around 7:30 am. OK, it happens, but here is my issue. Not acknowledgement to the guests at all after the event. No sorry of the inconvenience. No explanation of what happened. NOTHING. You would think they would have a staff member at the door when they let you back in explaining the issue, or at least a check out give you a "I am Sorry.". I am not looking for a discount, but at least let me know you acknowledge the event and that you are sorry I got drug out of bed at 7:30 am when I am on vacation time. Again. Clean hotel, good convenient location, but I can't go higher than a 3 after the above two events.More</t>
   </si>
   <si>
@@ -663,6 +1044,42 @@
     <t>Shocking to be so wonderfully impressed by a hotel room! This place shoukd get the top award of them all for both efficiency of space AND extremely comfy roominess!! Great layout designed so my husnand and I don,t bump into each other. Plenty of shelves (even in the shower!), hooks, a versatile kitchen, and slude-away tables, and plenty of drawers and closet space. Cheerful breakfast area in lobby that is not a cookie cutter of other hotels' dull and dreary buffets. Imagine offering wholegrain, buckwheat waffles! THIS is a spectacular concept inspired by a management team that LISTENS  to and wants to please guests' needs instead of treating them like cattle.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r488643072-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>488643072</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graduation visit </t>
+  </si>
+  <si>
+    <t>We were in the area for a graduation visit and this was in the right area. The staff was terrific getting us the room we wanted. The room was excellent with a lot of space. The kitchenette was very nice and the beds comfortable. We have stayed at several Home2Suites and they have a common design flaw. The breakfast area is designed to look good but does not function well. Everything is crowded into a small area and people cannot move around others. No one can figure out the toaster without staff help. You have to get down on the floor to reach milk in the bottom back of the refrigerator. Get the hotel execs to stay and use the hotel and I think they'll come up with a great redesign that will make the brand terrific. MoreShow less</t>
+  </si>
+  <si>
+    <t>We were in the area for a graduation visit and this was in the right area. The staff was terrific getting us the room we wanted. The room was excellent with a lot of space. The kitchenette was very nice and the beds comfortable. We have stayed at several Home2Suites and they have a common design flaw. The breakfast area is designed to look good but does not function well. Everything is crowded into a small area and people cannot move around others. No one can figure out the toaster without staff help. You have to get down on the floor to reach milk in the bottom back of the refrigerator. Get the hotel execs to stay and use the hotel and I think they'll come up with a great redesign that will make the brand terrific. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r488452772-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>488452772</t>
+  </si>
+  <si>
+    <t>05/28/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sleepless night </t>
+  </si>
+  <si>
+    <t>The walls are so thin that we could hear everything happening next door which included a couple fighting at 5 am while the kids cried.  Rooms are decorated beautifully but I would prefer more insulation or sound barrier.MoreShow less</t>
+  </si>
+  <si>
+    <t>The walls are so thin that we could hear everything happening next door which included a couple fighting at 5 am while the kids cried.  Rooms are decorated beautifully but I would prefer more insulation or sound barrier.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r486670364-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
   </si>
   <si>
@@ -717,6 +1134,89 @@
     <t>My husband and I stayed at this hotel for a total of 5 days . This was a getaway for me because of recent tragic event that occurred.   The first night that we slept on our bed. I noticed a smell that did not smell like clean sheets . I told my husband that this does not smell right.  It smelled like someone else's scent.  The next morning I looked at the pillow case and saw a big Brown stain . I was mortified .  I went to the front desk and I complained about the situation.  The woman at the front desk told me that the housekeeping staff was new. That was still no excuse for us sleeping on old sheets. Thankfully the sheets were changed, with no smell.  The next day though, we left out the room and came back later on in the early evening and the room had not been cleaned.  They explained to us that they housekeeping staff was gone . Again frustrated,because of the service. We left back out and when we returned , everything was straightened up .  The staff at the front desk really did their best to make sure we were ok but I'm just so displeased that because the housekeeping staff and the hotel is so new ,that we had to endure mediocre customer service .  A sign in the hotel said that if you are not satisfied with the...My husband and I stayed at this hotel for a total of 5 days . This was a getaway for me because of recent tragic event that occurred.   The first night that we slept on our bed. I noticed a smell that did not smell like clean sheets . I told my husband that this does not smell right.  It smelled like someone else's scent.  The next morning I looked at the pillow case and saw a big Brown stain . I was mortified .  I went to the front desk and I complained about the situation.  The woman at the front desk told me that the housekeeping staff was new. That was still no excuse for us sleeping on old sheets. Thankfully the sheets were changed, with no smell.  The next day though, we left out the room and came back later on in the early evening and the room had not been cleaned.  They explained to us that they housekeeping staff was gone . Again frustrated,because of the service. We left back out and when we returned , everything was straightened up .  The staff at the front desk really did their best to make sure we were ok but I'm just so displeased that because the housekeeping staff and the hotel is so new ,that we had to endure mediocre customer service .  A sign in the hotel said that if you are not satisfied with the service ,that the stay will be on them.   Now I was not too satisfied , and that offer did not take place .  Breakfast was good, Internet was kind of bad .  If the housekeeping was better this would have been a definite 5 star review. They really need to monitor housekeeping to make sure that whomever checks out that day ,housekeeping is aware that the room need a full cleaning for the next guest . More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r478551705-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>478551705</t>
+  </si>
+  <si>
+    <t>04/24/2017</t>
+  </si>
+  <si>
+    <t>Newer Hotel</t>
+  </si>
+  <si>
+    <t>Overall a decent extended stay hotel.  A newer property and it shows.  The room was comfortable enough but somehow seemed "sterile"  nothing I can put my finger on it just seemed very utilitarian, in many ways reminding me of a college dorm room.  
+Staff was very friendly.  They responded quickly to my reported maintenance issue.  On the negative side, housekeeping didn't proactively check that there was shower gel in the eco friendly dispenser, and even when I reported it it wasn't dealt with the next day.
+The breakfast area is just ok.  Microwave food available (complimentary) and cereal, yogurt etc.  
+One major annoyance was that the check-in app for iPhone doesn't give a floor plan for this facility (it does for others).  I ended up picking a room that I thought would be at the end of the hall-way and instead it was right near the lobby and breakfast area.
+Pros:
+- Clean
+- Friendly staff
+- Comfortable rooms
+- Nice work area in room
+- Decent kitchen area - Microwave, sink, dishwasher, full size refrigerator (hot plate/electric skillet available from front desk)
+- Newer HD TV
+- Ethernet available for connectivity
+- Decent workout facility but it is connected with the laundry
+- Free Laundry/Dryer (2 machines for each), but you need to provide your own detergent.
+Cons
+- Still working through some new hotel issues, Some of the shower doors stick for example.
+- They don't proactively check...Overall a decent extended stay hotel.  A newer property and it shows.  The room was comfortable enough but somehow seemed "sterile"  nothing I can put my finger on it just seemed very utilitarian, in many ways reminding me of a college dorm room.  Staff was very friendly.  They responded quickly to my reported maintenance issue.  On the negative side, housekeeping didn't proactively check that there was shower gel in the eco friendly dispenser, and even when I reported it it wasn't dealt with the next day.The breakfast area is just ok.  Microwave food available (complimentary) and cereal, yogurt etc.  One major annoyance was that the check-in app for iPhone doesn't give a floor plan for this facility (it does for others).  I ended up picking a room that I thought would be at the end of the hall-way and instead it was right near the lobby and breakfast area.Pros:- Clean- Friendly staff- Comfortable rooms- Nice work area in room- Decent kitchen area - Microwave, sink, dishwasher, full size refrigerator (hot plate/electric skillet available from front desk)- Newer HD TV- Ethernet available for connectivity- Decent workout facility but it is connected with the laundry- Free Laundry/Dryer (2 machines for each), but you need to provide your own detergent.Cons- Still working through some new hotel issues, Some of the shower doors stick for example.- They don't proactively check things like shampoo and shower gel levels.- The work out room tied to the laundry can add some "heat" to the gym area.- Gym area seemed to be on a timer.  It was very warm at 5:00 AM but at 6:00 AM the air conditioning seemed to kick on.-  Eco-friendly nature of the hotel, should have them using something other than plastic cups for water dispenser at the gym.I would stay here again if I were in the area for more than 2 nights but not sure it would be my first choice for a single night.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Angela N, General Manager at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded April 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2017</t>
+  </si>
+  <si>
+    <t>Overall a decent extended stay hotel.  A newer property and it shows.  The room was comfortable enough but somehow seemed "sterile"  nothing I can put my finger on it just seemed very utilitarian, in many ways reminding me of a college dorm room.  
+Staff was very friendly.  They responded quickly to my reported maintenance issue.  On the negative side, housekeeping didn't proactively check that there was shower gel in the eco friendly dispenser, and even when I reported it it wasn't dealt with the next day.
+The breakfast area is just ok.  Microwave food available (complimentary) and cereal, yogurt etc.  
+One major annoyance was that the check-in app for iPhone doesn't give a floor plan for this facility (it does for others).  I ended up picking a room that I thought would be at the end of the hall-way and instead it was right near the lobby and breakfast area.
+Pros:
+- Clean
+- Friendly staff
+- Comfortable rooms
+- Nice work area in room
+- Decent kitchen area - Microwave, sink, dishwasher, full size refrigerator (hot plate/electric skillet available from front desk)
+- Newer HD TV
+- Ethernet available for connectivity
+- Decent workout facility but it is connected with the laundry
+- Free Laundry/Dryer (2 machines for each), but you need to provide your own detergent.
+Cons
+- Still working through some new hotel issues, Some of the shower doors stick for example.
+- They don't proactively check...Overall a decent extended stay hotel.  A newer property and it shows.  The room was comfortable enough but somehow seemed "sterile"  nothing I can put my finger on it just seemed very utilitarian, in many ways reminding me of a college dorm room.  Staff was very friendly.  They responded quickly to my reported maintenance issue.  On the negative side, housekeeping didn't proactively check that there was shower gel in the eco friendly dispenser, and even when I reported it it wasn't dealt with the next day.The breakfast area is just ok.  Microwave food available (complimentary) and cereal, yogurt etc.  One major annoyance was that the check-in app for iPhone doesn't give a floor plan for this facility (it does for others).  I ended up picking a room that I thought would be at the end of the hall-way and instead it was right near the lobby and breakfast area.Pros:- Clean- Friendly staff- Comfortable rooms- Nice work area in room- Decent kitchen area - Microwave, sink, dishwasher, full size refrigerator (hot plate/electric skillet available from front desk)- Newer HD TV- Ethernet available for connectivity- Decent workout facility but it is connected with the laundry- Free Laundry/Dryer (2 machines for each), but you need to provide your own detergent.Cons- Still working through some new hotel issues, Some of the shower doors stick for example.- They don't proactively check things like shampoo and shower gel levels.- The work out room tied to the laundry can add some "heat" to the gym area.- Gym area seemed to be on a timer.  It was very warm at 5:00 AM but at 6:00 AM the air conditioning seemed to kick on.-  Eco-friendly nature of the hotel, should have them using something other than plastic cups for water dispenser at the gym.I would stay here again if I were in the area for more than 2 nights but not sure it would be my first choice for a single night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r473714480-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>473714480</t>
+  </si>
+  <si>
+    <t>04/08/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long term visit, amazing place! </t>
+  </si>
+  <si>
+    <t>I'm here for 6 weeks for a job training. I have been very happy with my stay. From the staff at the front desk,to the shuttle driver, to the cleaning staff, everyone has been very pleasant and have outstanding customer service. I am on a special diet so I prep my meals. They have a hot plate and skillet you can use to cook in your room. The breakfast can use some changing around as it is the same every day. However, I make my own in my room and go down for coffee. So either way, I am extremely happy so far. One thing that would make this perfect would be a hot tub! If I can't be home, I'm glad I have a nice comfortable room to call home for a few weeks. The gym is very nice and doable and they offer free use of washer and dryer! MoreShow less</t>
+  </si>
+  <si>
+    <t>Angela N, General Manager at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded April 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2017</t>
+  </si>
+  <si>
+    <t>I'm here for 6 weeks for a job training. I have been very happy with my stay. From the staff at the front desk,to the shuttle driver, to the cleaning staff, everyone has been very pleasant and have outstanding customer service. I am on a special diet so I prep my meals. They have a hot plate and skillet you can use to cook in your room. The breakfast can use some changing around as it is the same every day. However, I make my own in my room and go down for coffee. So either way, I am extremely happy so far. One thing that would make this perfect would be a hot tub! If I can't be home, I'm glad I have a nice comfortable room to call home for a few weeks. The gym is very nice and doable and they offer free use of washer and dryer! More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r470959675-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
   </si>
   <si>
@@ -780,6 +1280,57 @@
     <t>First time to stay at Home2Suites for us, we booked 2 rooms for our group heading to vacation.  The rooms were very large and every comfortable with a great price.  I was very pleased for what we got for $115/night.  We definitely will be staying here in the future.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r467913053-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>467913053</t>
+  </si>
+  <si>
+    <t>03/16/2017</t>
+  </si>
+  <si>
+    <t>Weak attention 2 detail</t>
+  </si>
+  <si>
+    <t>For such a young hotel, we saw a lot of loose fixtures and a crack in the wall of one elevators, which lead us to believe the building was assembled quickly without attention to detail. Therefore, it probably won't wear well over time. Home2 has a proud "green" concept (which was explained in detail at check-in) so we were surprised to find it not to be so efficiently green. For example, the fridge was set to very cold, so cold our drinks froze and the bathroom fan never shuts off. If a company is going to go "green", I suggest they do audits frequently  to recognize actual waste.  However, the bed was comfortable and room was spacious and we like the convenient of the kitchette for eating some meals at the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Christine F, Director of Sales at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded March 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2017</t>
+  </si>
+  <si>
+    <t>For such a young hotel, we saw a lot of loose fixtures and a crack in the wall of one elevators, which lead us to believe the building was assembled quickly without attention to detail. Therefore, it probably won't wear well over time. Home2 has a proud "green" concept (which was explained in detail at check-in) so we were surprised to find it not to be so efficiently green. For example, the fridge was set to very cold, so cold our drinks froze and the bathroom fan never shuts off. If a company is going to go "green", I suggest they do audits frequently  to recognize actual waste.  However, the bed was comfortable and room was spacious and we like the convenient of the kitchette for eating some meals at the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r460245202-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>460245202</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>SIMPLY INCREDIBLE!</t>
+  </si>
+  <si>
+    <t>I stayed here on business for 34 days and was consistently delighted with the fantastic service I received! I got to know alot of the staff and let me tell you, they are a wonderful group of individuals! My 'cleaning faeries' kept my room in immaculate condition &amp; stocked with plenty of coffee-- the front desk personnel were always cheery &amp; helpful...I didn't feel like a 'business traveler', I  felt like part of the family! Thank you John, Kevin, Joan and everyone else for making my time away such a terrific experience! This is a newer hotel that has a wonderful heated saline pool, work out/free laundry room, complimentary breakfast, free shuttle, very nice computer work stations &amp; printer....all the amenities combined with  over the top customer service make this hotel a hidden gem when traveling to the Denver area!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Angela N, General Manager at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded February 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here on business for 34 days and was consistently delighted with the fantastic service I received! I got to know alot of the staff and let me tell you, they are a wonderful group of individuals! My 'cleaning faeries' kept my room in immaculate condition &amp; stocked with plenty of coffee-- the front desk personnel were always cheery &amp; helpful...I didn't feel like a 'business traveler', I  felt like part of the family! Thank you John, Kevin, Joan and everyone else for making my time away such a terrific experience! This is a newer hotel that has a wonderful heated saline pool, work out/free laundry room, complimentary breakfast, free shuttle, very nice computer work stations &amp; printer....all the amenities combined with  over the top customer service make this hotel a hidden gem when traveling to the Denver area!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r457939206-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
   </si>
   <si>
@@ -855,6 +1406,57 @@
     <t>I didn't give it 5 stars because it obviously isn't a 5 star hotel but it was great! The staff are super friendly. The room was very spacious and even had a curtain dividing the beds from the sofa (sofa bed). Breakfast was great... A lot of options. Omelettes, breakfast sandwiches, fruit, etc. And Coffee and tea was available all day which was nice. They have high chairs so my 7 month old was happy. My 3 year old was happy with the TV channels Nick Jr and Disney. They have a free washer and dryer downstairs in the gym, just have to buy detergent which they sell. Overall great place to stay. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r450883584-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>450883584</t>
+  </si>
+  <si>
+    <t>01/09/2017</t>
+  </si>
+  <si>
+    <t>Newer property - good staff</t>
+  </si>
+  <si>
+    <t>Moved our family to this location after a debacle at the Homewood suites in Denver Tech Center.  This property was clean, staff was friendly.  Love all the desk and cabinet space when traveling with lots of luggage and kids. Breakfast was a bit chaotic and weird with pre-made heat-in-microwave food, but we all got plenty to eat and had good choices.  This would have been my new favorite kid-friendly hotel chain, although I'm so unhappy with Hilton after what happened to us at the Homewood Denver Tech Center, that I had my Gold status matched to Marriott and Hyatt and will be using them from now on.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Christine F, Director of Sales at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded January 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2017</t>
+  </si>
+  <si>
+    <t>Moved our family to this location after a debacle at the Homewood suites in Denver Tech Center.  This property was clean, staff was friendly.  Love all the desk and cabinet space when traveling with lots of luggage and kids. Breakfast was a bit chaotic and weird with pre-made heat-in-microwave food, but we all got plenty to eat and had good choices.  This would have been my new favorite kid-friendly hotel chain, although I'm so unhappy with Hilton after what happened to us at the Homewood Denver Tech Center, that I had my Gold status matched to Marriott and Hyatt and will be using them from now on.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r446153396-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>446153396</t>
+  </si>
+  <si>
+    <t>12/22/2016</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>This is a new hotel and it's really pretty! The location is perfect for where I work (across the street) but, I had a hard time with the housekeeping. The room was clean upon arrival but for being there for 3 weeks I had to ask them to change sheets, they vacuumed outside my room at 10pm and whenever they would clean they would always miss something. Other than that I'd definitely stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Christine F, Director of Sales at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded December 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 27, 2016</t>
+  </si>
+  <si>
+    <t>This is a new hotel and it's really pretty! The location is perfect for where I work (across the street) but, I had a hard time with the housekeeping. The room was clean upon arrival but for being there for 3 weeks I had to ask them to change sheets, they vacuumed outside my room at 10pm and whenever they would clean they would always miss something. Other than that I'd definitely stay again. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r444690315-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
   </si>
   <si>
@@ -870,9 +1472,6 @@
     <t>Friendliest staff, from front desk, down to house keeping I really felt like a valued guest. The rooms are very clean, and spacious with the softest bed sheets and a bed that makes one melt. It was my first time swimming in a saline pool, I liked that it left my skin soft without the chlorine after feel. Breakfast had a wide variety, with a set up where one could read the many news papers or grab and go. I only stayed for one night, but wish my stay could of been longer. Everything one would need was on site or would be made available. I will be staying with Home 2 again in the future. Thank you.MoreShow less</t>
   </si>
   <si>
-    <t>December 2016</t>
-  </si>
-  <si>
     <t>Christine F, Director of Sales at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded December 20, 2016</t>
   </si>
   <si>
@@ -927,15 +1526,54 @@
     <t>stayed at this new modern hotel while my daughter did a course. lovely spacious rooms with everything u need.......great idea to have a kitchen in the room......lovely modern equipment.....breakfasts were pretty good with a large variety of items.....More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r434149348-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>434149348</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>Just like our second home</t>
+  </si>
+  <si>
+    <t>We only stayed 4 days but felt so at home.  Everyone we met there whether staff or guests seemed really comfortable.We had a large kitchen with a full size refrigerator, large dishwasher and an extra large microwave Full set of dishes, cups &amp; glasses, drawer full of silverware with cooking &amp; serving utensils.A medium and large baking dish and even a large noodle strainer.  For families staying a while there were two BBQ cookers downstairs on the patio next to the heated indoor swimming pool.Back upstairs next to the kitchen in this spacious guest room there is a long desk with shelves up above.  Nesting under the desk is a large oval table that wheels out to the couch across the room and can serve as a dinner table.Next to the extra chair and ottoman that also provide seating for the table, there is a heavy curtain to separate the seating area from the bed and nite tables.The flat screen tv which has it's own table can turn from the bed to the seating &amp; eating area.Great alternative when options for meals is appreciated and comfort is number one.MoreShow less</t>
+  </si>
+  <si>
+    <t>Christine F, Director of Sales at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded November 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2016</t>
+  </si>
+  <si>
+    <t>We only stayed 4 days but felt so at home.  Everyone we met there whether staff or guests seemed really comfortable.We had a large kitchen with a full size refrigerator, large dishwasher and an extra large microwave Full set of dishes, cups &amp; glasses, drawer full of silverware with cooking &amp; serving utensils.A medium and large baking dish and even a large noodle strainer.  For families staying a while there were two BBQ cookers downstairs on the patio next to the heated indoor swimming pool.Back upstairs next to the kitchen in this spacious guest room there is a long desk with shelves up above.  Nesting under the desk is a large oval table that wheels out to the couch across the room and can serve as a dinner table.Next to the extra chair and ottoman that also provide seating for the table, there is a heavy curtain to separate the seating area from the bed and nite tables.The flat screen tv which has it's own table can turn from the bed to the seating &amp; eating area.Great alternative when options for meals is appreciated and comfort is number one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r433772399-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>433772399</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>Roomy and clean equals great last stop before flight</t>
+  </si>
+  <si>
+    <t>My husband and I really enjoyed the spacious room ,,,, actually  the suite  with a king bed , separate bathroom,  full kitchen , and a full living area. This is a very new property. In fact the area surrounding it is under construction lots of new growth so don't expect a quiet morning because there will be trucks and construction noise. Check in and check out experience was average. Giving this the rate of my review is based solely on the amount of room and the newness and cleanness of the facility. And, ease of  access to it, and fairly easy drive to get to the Denver airport the next day. We did not eat any of the breakfast so I cannot comment about that.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I really enjoyed the spacious room ,,,, actually  the suite  with a king bed , separate bathroom,  full kitchen , and a full living area. This is a very new property. In fact the area surrounding it is under construction lots of new growth so don't expect a quiet morning because there will be trucks and construction noise. Check in and check out experience was average. Giving this the rate of my review is based solely on the amount of room and the newness and cleanness of the facility. And, ease of  access to it, and fairly easy drive to get to the Denver airport the next day. We did not eat any of the breakfast so I cannot comment about that.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r433531331-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
   </si>
   <si>
     <t>433531331</t>
   </si>
   <si>
-    <t>11/01/2016</t>
-  </si>
-  <si>
     <t>Great spot for the money!</t>
   </si>
   <si>
@@ -991,6 +1629,57 @@
   </si>
   <si>
     <t>Lovely hotel, new, fresh, clean and awesome big suites with everything you need!  Loved the sheets and the modern bathroomsGreat pool and outdoor fire place to relax by. We where a big group of horse show girls and we are coming back for sure! Thanks Sara for taking great care of us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r430060501-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>430060501</t>
+  </si>
+  <si>
+    <t>10/20/2016</t>
+  </si>
+  <si>
+    <t>Excellent stop over hotel</t>
+  </si>
+  <si>
+    <t>The Home2 was recently opened when we visited and it was a great find.  The place was quiet, the service good, and the rooms very comfortable.  We'd stay again when back through this area.  Reviews of a very nearby breakfast place (Urban Egg) pulled us away from the free breakfast at the hotel and we were glad to have discovered this excellent breakfast place so close by the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Christine F, Director of Sales at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded October 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2016</t>
+  </si>
+  <si>
+    <t>The Home2 was recently opened when we visited and it was a great find.  The place was quiet, the service good, and the rooms very comfortable.  We'd stay again when back through this area.  Reviews of a very nearby breakfast place (Urban Egg) pulled us away from the free breakfast at the hotel and we were glad to have discovered this excellent breakfast place so close by the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r427731119-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>427731119</t>
+  </si>
+  <si>
+    <t>10/13/2016</t>
+  </si>
+  <si>
+    <t>Great Staff and Beautiful Hotel</t>
+  </si>
+  <si>
+    <t>We stayed one night at the Home2 Suites in Highlands Ranch to attend an event nearby, and enjoyed it very much. The desk staff was wonderfully welcoming and we appreciated the assistance of Assistant General Manager Ann Marie Lucchesi. The hotel is very modern and bright. Our suite was large, very clean, modern with all the amenities, and beautifully decorated, with a comfortable bed. I imagine it would be nice for an extended stay, with a good kitchen (refrig., dishes, etc.).MoreShow less</t>
+  </si>
+  <si>
+    <t>Christine F, Director of Sales at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded October 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2016</t>
+  </si>
+  <si>
+    <t>We stayed one night at the Home2 Suites in Highlands Ranch to attend an event nearby, and enjoyed it very much. The desk staff was wonderfully welcoming and we appreciated the assistance of Assistant General Manager Ann Marie Lucchesi. The hotel is very modern and bright. Our suite was large, very clean, modern with all the amenities, and beautifully decorated, with a comfortable bed. I imagine it would be nice for an extended stay, with a good kitchen (refrig., dishes, etc.).More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r415940663-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
@@ -1062,12 +1751,60 @@
     <t>This hotel is new. The rooms are big and well furnished with modern furniture and a kitchen area. The breakfast buffet is pretty good. The lounge area is bright and appealing. This is a good hotel for a family stay or for a business trip.MoreShow less</t>
   </si>
   <si>
-    <t>August 2016</t>
-  </si>
-  <si>
     <t>This hotel is new. The rooms are big and well furnished with modern furniture and a kitchen area. The breakfast buffet is pretty good. The lounge area is bright and appealing. This is a good hotel for a family stay or for a business trip.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r411964869-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>411964869</t>
+  </si>
+  <si>
+    <t>08/28/2016</t>
+  </si>
+  <si>
+    <t>Clean, friendly, comfortable- good location for the Drag races</t>
+  </si>
+  <si>
+    <t>This hotel is new and very nice. The staff is very friendly and you can tell dedicated to keeping the hotel very clean. This is a great location for Fiddler's Green if attending a concern or going to the drag races. Cost is much better than other hotels in the immediate area. Close to restaurants as well. When I was there they were pending a liquor license. It would be a great place to relax with a glass of wine in the evening.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Christine F, Director of Sales at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded August 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is new and very nice. The staff is very friendly and you can tell dedicated to keeping the hotel very clean. This is a great location for Fiddler's Green if attending a concern or going to the drag races. Cost is much better than other hotels in the immediate area. Close to restaurants as well. When I was there they were pending a liquor license. It would be a great place to relax with a glass of wine in the evening.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r410216734-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>410216734</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Brand New Comfortable Mini-Suites</t>
+  </si>
+  <si>
+    <t>This new property by Hilton is located on the other side of Lucent Ave in Highlands Ranch.  Children's Hospital in across Lucent -- very convenient.  This property prides itself on being "green' and eco-friendly.  Very nice and comfortable room with a full size refrigerator, microwave, and kitchen accessories.  Saline indoor pool and very nice exercise room and equipment.MoreShow less</t>
+  </si>
+  <si>
+    <t>Christine F, Director of Sales at Home2 Suites by Hilton Denver Highlands Ranch, responded to this reviewResponded August 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2016</t>
+  </si>
+  <si>
+    <t>This new property by Hilton is located on the other side of Lucent Ave in Highlands Ranch.  Children's Hospital in across Lucent -- very convenient.  This property prides itself on being "green' and eco-friendly.  Very nice and comfortable room with a full size refrigerator, microwave, and kitchen accessories.  Saline indoor pool and very nice exercise room and equipment.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r405495032-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
   </si>
   <si>
@@ -1125,9 +1862,6 @@
     <t>This is a brand new hotel. Front desk was nice, helped me get checked in quickly and and was friendly. This hotel offers full size fridge, microwave, dishwasher, plates, silverware and glasses. I love having the convenience of these items when away from home. You can even request a cooking top to cook on which was extra special since I've never seen that offered elsewhere. New carpet and bed linens. One drawback was the place doesn't seem to be insulated very well and you can literally hear everything. Doors, kids, people, other TV's etc. Another thing was the water pressure. The shower water pressure is not good at all. For it being s new location you would think they'd have taken a page from other hotel chains and installed nice shower heads with pressure to match. They also have breakfast which is another plus to staying here. Close to restaurants and other retailers. I would definitely recommend it.MoreShow less</t>
   </si>
   <si>
-    <t>July 2016</t>
-  </si>
-  <si>
     <t>Management response:Responded July 28, 2016</t>
   </si>
   <si>
@@ -1137,15 +1871,48 @@
     <t>This is a brand new hotel. Front desk was nice, helped me get checked in quickly and and was friendly. This hotel offers full size fridge, microwave, dishwasher, plates, silverware and glasses. I love having the convenience of these items when away from home. You can even request a cooking top to cook on which was extra special since I've never seen that offered elsewhere. New carpet and bed linens. One drawback was the place doesn't seem to be insulated very well and you can literally hear everything. Doors, kids, people, other TV's etc. Another thing was the water pressure. The shower water pressure is not good at all. For it being s new location you would think they'd have taken a page from other hotel chains and installed nice shower heads with pressure to match. They also have breakfast which is another plus to staying here. Close to restaurants and other retailers. I would definitely recommend it.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r396422391-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>396422391</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>New, Clean, Comfortable!</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights and were very impressed with the hotel. It had all the kitchenware one might need if you were eating in, the provided breakfast was excellent and plentiful, and the staff was very friendly and helpful. Overall excellent and I would gladly stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights and were very impressed with the hotel. It had all the kitchenware one might need if you were eating in, the provided breakfast was excellent and plentiful, and the staff was very friendly and helpful. Overall excellent and I would gladly stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r396024366-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>396024366</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>Great hotel!!</t>
+  </si>
+  <si>
+    <t>We stayed here on July 16th, and the hotel was barely a month old and immaculate!  We purchased a "snack" from the little store in the lobby to warm up in the microwave in the room. The ability to do this was fantastic for a couple of weary travelers!The bed was comfortable and the room was clean. The breakfast offerings were good the next morning, though there was quite a stack-up of people around the microwaves. Not really unexpected though. The orange juice machine wasn't working, which was disappointing for someone who doesn't drink much coffee. Other than that, the hotel was very good!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here on July 16th, and the hotel was barely a month old and immaculate!  We purchased a "snack" from the little store in the lobby to warm up in the microwave in the room. The ability to do this was fantastic for a couple of weary travelers!The bed was comfortable and the room was clean. The breakfast offerings were good the next morning, though there was quite a stack-up of people around the microwaves. Not really unexpected though. The orange juice machine wasn't working, which was disappointing for someone who doesn't drink much coffee. Other than that, the hotel was very good!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r396023713-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
   </si>
   <si>
     <t>396023713</t>
   </si>
   <si>
-    <t>07/23/2016</t>
-  </si>
-  <si>
     <t>awesome clean new place</t>
   </si>
   <si>
@@ -1204,6 +1971,30 @@
   </si>
   <si>
     <t>I greatly recommend this hotel. I stayed in a king bed room it had a pulled out bed which was very comfortable the king bed was also very comfortable the room included a small kitchen with microwave refrigerator dishwasher. The room was very modern and extremely comfortable. Customer service was great. Indoor pool, and free breakfast. Everything was very clean. Most definitely will stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d9985040-r382287926-Home2_Suites_by_Hilton_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>382287926</t>
+  </si>
+  <si>
+    <t>06/13/2016</t>
+  </si>
+  <si>
+    <t>Last minute one night stay</t>
+  </si>
+  <si>
+    <t>I checked in very late &amp; did not eat breakfast or visit the pool &amp; gym. Once I got inside the room, I didn't leave the room until checking out. This property had only been open for 2 days when I stayed. I love this chain of Hilton hotels because of the full sized kitchen with amenities, and the modern, fresh design/decor. This location is quite far from central Denver, but when last minute accommodations were needed, it was one of only two Hilton brand properties that were not completely sold out. No complaints, lovely hotel, amenities that are convenient &amp; helpful for extended stays, all around perfect.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2016</t>
+  </si>
+  <si>
+    <t>I checked in very late &amp; did not eat breakfast or visit the pool &amp; gym. Once I got inside the room, I didn't leave the room until checking out. This property had only been open for 2 days when I stayed. I love this chain of Hilton hotels because of the full sized kitchen with amenities, and the modern, fresh design/decor. This location is quite far from central Denver, but when last minute accommodations were needed, it was one of only two Hilton brand properties that were not completely sold out. No complaints, lovely hotel, amenities that are convenient &amp; helpful for extended stays, all around perfect.More</t>
   </si>
 </sst>
 </file>
@@ -1738,7 +2529,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1746,19 +2537,27 @@
       <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -1774,7 +2573,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -1783,25 +2582,25 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1813,13 +2612,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -1835,7 +2634,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1844,25 +2643,25 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1874,13 +2673,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -1896,7 +2695,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1905,26 +2704,22 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" t="s">
-        <v>52</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
@@ -1935,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="X5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y5" t="s">
         <v>79</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -1957,58 +2752,52 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
         <v>81</v>
       </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
         <v>82</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>83</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>63</v>
+      </c>
+      <c r="X6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y6" t="s">
         <v>84</v>
-      </c>
-      <c r="L6" t="s">
-        <v>85</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>86</v>
-      </c>
-      <c r="O6" t="s">
-        <v>68</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="s">
-        <v>78</v>
-      </c>
-      <c r="X6" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -2024,35 +2813,31 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
         <v>88</v>
       </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>89</v>
-      </c>
-      <c r="J7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" t="s">
-        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
-      <c r="N7" t="s">
-        <v>86</v>
-      </c>
-      <c r="O7" t="s">
-        <v>68</v>
-      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
@@ -2063,13 +2848,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="X7" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
@@ -2085,43 +2870,41 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
         <v>94</v>
       </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
         <v>95</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>96</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>97</v>
       </c>
-      <c r="L8" t="s">
-        <v>98</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>99</v>
-      </c>
       <c r="O8" t="s">
-        <v>68</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
         <v>5</v>
@@ -2130,13 +2913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="X8" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
@@ -2152,31 +2935,35 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
         <v>103</v>
       </c>
-      <c r="G9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
         <v>104</v>
       </c>
-      <c r="J9" t="s">
-        <v>105</v>
-      </c>
-      <c r="K9" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" t="s">
-        <v>107</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
@@ -2187,13 +2974,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="X9" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -2209,7 +2996,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -2218,49 +3005,43 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O10" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>1</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="X10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
@@ -2276,52 +3057,56 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" t="s">
         <v>118</v>
       </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>119</v>
       </c>
-      <c r="J11" t="s">
-        <v>120</v>
-      </c>
-      <c r="K11" t="s">
-        <v>121</v>
-      </c>
-      <c r="L11" t="s">
-        <v>122</v>
-      </c>
-      <c r="M11" t="n">
+      <c r="O11" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" t="n">
         <v>4</v>
       </c>
-      <c r="N11" t="s">
-        <v>123</v>
-      </c>
-      <c r="O11" t="s">
-        <v>68</v>
-      </c>
-      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="X11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Y11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
@@ -2337,56 +3122,52 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L12" t="s">
         <v>127</v>
       </c>
-      <c r="G12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
         <v>128</v>
       </c>
-      <c r="J12" t="s">
-        <v>129</v>
-      </c>
-      <c r="K12" t="s">
-        <v>130</v>
-      </c>
-      <c r="L12" t="s">
-        <v>131</v>
-      </c>
-      <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="s">
-        <v>123</v>
-      </c>
       <c r="O12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>4</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="X12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Y12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
@@ -2402,56 +3183,52 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" t="s">
         <v>135</v>
       </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
         <v>136</v>
       </c>
-      <c r="J13" t="s">
-        <v>137</v>
-      </c>
-      <c r="K13" t="s">
-        <v>138</v>
-      </c>
-      <c r="L13" t="s">
-        <v>139</v>
-      </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="O13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="X13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Y13" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14">
@@ -2467,54 +3244,58 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14" t="s">
         <v>144</v>
       </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
         <v>145</v>
       </c>
-      <c r="J14" t="s">
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>137</v>
+      </c>
+      <c r="X14" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y14" t="s">
         <v>146</v>
-      </c>
-      <c r="K14" t="s">
-        <v>147</v>
-      </c>
-      <c r="L14" t="s">
-        <v>148</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>149</v>
-      </c>
-      <c r="O14" t="s">
-        <v>59</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
-      <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="s">
-        <v>150</v>
-      </c>
-      <c r="X14" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="15">
@@ -2530,7 +3311,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -2539,25 +3320,25 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="O15" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2569,13 +3350,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="X15" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="Y15" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
@@ -2591,7 +3372,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2600,49 +3381,43 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="J16" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="K16" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
         <v>158</v>
       </c>
       <c r="O16" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>3</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="X16" t="s">
         <v>160</v>
       </c>
       <c r="Y16" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
@@ -2658,7 +3433,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2667,31 +3442,31 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="O17" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="s"/>
       <c r="S17" t="n">
         <v>5</v>
       </c>
@@ -2703,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="X17" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="Y17" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
@@ -2725,7 +3500,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2734,33 +3509,33 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J18" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K18" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="O18" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
       </c>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
@@ -2770,13 +3545,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="X18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Y18" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19">
@@ -2792,28 +3567,28 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J19" t="s">
+        <v>182</v>
+      </c>
+      <c r="K19" t="s">
+        <v>183</v>
+      </c>
+      <c r="L19" t="s">
         <v>184</v>
       </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" t="s">
-        <v>185</v>
-      </c>
-      <c r="J19" t="s">
-        <v>186</v>
-      </c>
-      <c r="K19" t="s">
-        <v>187</v>
-      </c>
-      <c r="L19" t="s">
-        <v>188</v>
-      </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s"/>
       <c r="O19" t="s"/>
@@ -2827,13 +3602,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="X19" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="Y19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20">
@@ -2849,56 +3624,58 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>189</v>
+      </c>
+      <c r="J20" t="s">
         <v>190</v>
       </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>191</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
         <v>192</v>
-      </c>
-      <c r="K20" t="s">
-        <v>193</v>
-      </c>
-      <c r="L20" t="s">
-        <v>194</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="O20" t="s">
-        <v>68</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
+        <v>193</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="X20" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="Y20" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21">
@@ -2914,34 +3691,34 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J21" t="s">
+        <v>197</v>
+      </c>
+      <c r="K21" t="s">
         <v>198</v>
       </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="L21" t="s">
         <v>199</v>
       </c>
-      <c r="J21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K21" t="s">
-        <v>201</v>
-      </c>
-      <c r="L21" t="s">
-        <v>202</v>
-      </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="O21" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2953,13 +3730,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="X21" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Y21" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22">
@@ -2975,40 +3752,40 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
+        <v>203</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>204</v>
+      </c>
+      <c r="J22" t="s">
+        <v>205</v>
+      </c>
+      <c r="K22" t="s">
+        <v>206</v>
+      </c>
+      <c r="L22" t="s">
         <v>207</v>
       </c>
-      <c r="G22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
         <v>208</v>
       </c>
-      <c r="J22" t="s">
-        <v>209</v>
-      </c>
-      <c r="K22" t="s">
-        <v>210</v>
-      </c>
-      <c r="L22" t="s">
-        <v>211</v>
-      </c>
-      <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s">
-        <v>203</v>
-      </c>
       <c r="O22" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
       <c r="S22" t="n">
         <v>5</v>
       </c>
@@ -3020,13 +3797,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="X22" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="Y22" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23">
@@ -3042,7 +3819,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -3051,49 +3828,43 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J23" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K23" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
       <c r="O23" t="s">
-        <v>116</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>3</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="X23" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Y23" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24">
@@ -3109,58 +3880,56 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
+        <v>218</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>219</v>
+      </c>
+      <c r="J24" t="s">
+        <v>220</v>
+      </c>
+      <c r="K24" t="s">
         <v>221</v>
       </c>
-      <c r="G24" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="L24" t="s">
         <v>222</v>
       </c>
-      <c r="J24" t="s">
-        <v>223</v>
-      </c>
-      <c r="K24" t="s">
-        <v>224</v>
-      </c>
-      <c r="L24" t="s">
-        <v>225</v>
-      </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
       <c r="O24" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
-        <v>5</v>
-      </c>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="X24" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="Y24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25">
@@ -3176,52 +3945,56 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
         <v>227</v>
       </c>
-      <c r="G25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>228</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>229</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>230</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
         <v>231</v>
       </c>
-      <c r="M25" t="n">
-        <v>3</v>
-      </c>
-      <c r="N25" t="s">
-        <v>149</v>
-      </c>
       <c r="O25" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="X25" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="Y25" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26">
@@ -3237,7 +4010,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -3246,43 +4019,49 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J26" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K26" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L26" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="O26" t="s">
-        <v>59</v>
-      </c>
-      <c r="P26" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
       <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="X26" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y26" t="s">
         <v>240</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="27">
@@ -3298,31 +4077,31 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
+        <v>241</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
         <v>242</v>
       </c>
-      <c r="G27" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>243</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>244</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>245</v>
       </c>
-      <c r="L27" t="s">
-        <v>246</v>
-      </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="O27" t="s">
         <v>52</v>
@@ -3337,13 +4116,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="X27" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="Y27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28">
@@ -3359,58 +4138,54 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
+        <v>247</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
         <v>248</v>
       </c>
-      <c r="G28" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>249</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>250</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>251</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
         <v>252</v>
       </c>
-      <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s">
-        <v>238</v>
-      </c>
       <c r="O28" t="s">
-        <v>68</v>
-      </c>
-      <c r="P28" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
       <c r="Q28" t="s"/>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="X28" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="Y28" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29">
@@ -3426,7 +4201,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3435,49 +4210,43 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J29" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K29" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L29" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O29" t="s">
-        <v>68</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>3</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="X29" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Y29" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30">
@@ -3493,52 +4262,58 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
+        <v>265</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>266</v>
+      </c>
+      <c r="J30" t="s">
+        <v>267</v>
+      </c>
+      <c r="K30" t="s">
+        <v>268</v>
+      </c>
+      <c r="L30" t="s">
+        <v>269</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>261</v>
+      </c>
+      <c r="O30" t="s">
+        <v>193</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>270</v>
+      </c>
+      <c r="X30" t="s">
         <v>263</v>
       </c>
-      <c r="G30" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" t="s">
-        <v>46</v>
-      </c>
-      <c r="I30" t="s">
-        <v>264</v>
-      </c>
-      <c r="J30" t="s">
-        <v>265</v>
-      </c>
-      <c r="K30" t="s">
-        <v>266</v>
-      </c>
-      <c r="L30" t="s">
-        <v>267</v>
-      </c>
-      <c r="M30" t="n">
-        <v>5</v>
-      </c>
-      <c r="N30" t="s">
-        <v>259</v>
-      </c>
-      <c r="O30" t="s">
-        <v>52</v>
-      </c>
-      <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
-      <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="s">
-        <v>268</v>
-      </c>
-      <c r="X30" t="s">
-        <v>269</v>
-      </c>
       <c r="Y30" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31">
@@ -3554,7 +4329,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3563,25 +4338,25 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L31" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="O31" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3593,10 +4368,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="X31" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="Y31" t="s">
         <v>278</v>
@@ -3642,13 +4417,15 @@
         <v>284</v>
       </c>
       <c r="O32" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
         <v>5</v>
       </c>
-      <c r="R32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
@@ -3658,13 +4435,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
+        <v>270</v>
+      </c>
+      <c r="X32" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y32" t="s">
         <v>285</v>
-      </c>
-      <c r="X32" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="33">
@@ -3680,58 +4457,58 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
+        <v>286</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>287</v>
+      </c>
+      <c r="J33" t="s">
         <v>288</v>
       </c>
-      <c r="G33" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="K33" t="s">
         <v>289</v>
       </c>
-      <c r="J33" t="s">
+      <c r="L33" t="s">
         <v>290</v>
       </c>
-      <c r="K33" t="s">
-        <v>291</v>
-      </c>
-      <c r="L33" t="s">
-        <v>292</v>
-      </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O33" t="s">
-        <v>68</v>
-      </c>
-      <c r="P33" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
-      <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="X33" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Y33" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34">
@@ -3747,58 +4524,58 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
+        <v>294</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>295</v>
+      </c>
+      <c r="J34" t="s">
+        <v>288</v>
+      </c>
+      <c r="K34" t="s">
+        <v>296</v>
+      </c>
+      <c r="L34" t="s">
         <v>297</v>
       </c>
-      <c r="G34" t="s">
-        <v>45</v>
-      </c>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-      <c r="I34" t="s">
-        <v>298</v>
-      </c>
-      <c r="J34" t="s">
-        <v>299</v>
-      </c>
-      <c r="K34" t="s">
-        <v>300</v>
-      </c>
-      <c r="L34" t="s">
-        <v>301</v>
-      </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="O34" t="s">
-        <v>52</v>
-      </c>
-      <c r="P34" t="s"/>
-      <c r="Q34" t="s"/>
-      <c r="R34" t="n">
-        <v>4</v>
-      </c>
-      <c r="S34" t="n">
-        <v>4</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="X34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Y34" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35">
@@ -3814,58 +4591,48 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
+        <v>299</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>300</v>
+      </c>
+      <c r="J35" t="s">
+        <v>301</v>
+      </c>
+      <c r="K35" t="s">
+        <v>302</v>
+      </c>
+      <c r="L35" t="s">
         <v>303</v>
       </c>
-      <c r="G35" t="s">
-        <v>45</v>
-      </c>
-      <c r="H35" t="s">
-        <v>46</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>291</v>
+      </c>
+      <c r="X35" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y35" t="s">
         <v>304</v>
-      </c>
-      <c r="J35" t="s">
-        <v>305</v>
-      </c>
-      <c r="K35" t="s">
-        <v>306</v>
-      </c>
-      <c r="L35" t="s">
-        <v>307</v>
-      </c>
-      <c r="M35" t="n">
-        <v>5</v>
-      </c>
-      <c r="N35" t="s">
-        <v>293</v>
-      </c>
-      <c r="O35" t="s">
-        <v>52</v>
-      </c>
-      <c r="P35" t="s"/>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="s"/>
-      <c r="S35" t="n">
-        <v>4</v>
-      </c>
-      <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>4</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="s">
-        <v>308</v>
-      </c>
-      <c r="X35" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="36">
@@ -3881,7 +4648,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -3890,25 +4657,25 @@
         <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="J36" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="K36" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="L36" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="O36" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -3920,13 +4687,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="X36" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="Y36" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37">
@@ -3942,7 +4709,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
@@ -3951,30 +4718,28 @@
         <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="J37" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="K37" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L37" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="O37" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="P37" t="s"/>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
       <c r="S37" t="n">
         <v>5</v>
@@ -3987,13 +4752,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="X37" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="Y37" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38">
@@ -4009,7 +4774,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -4018,43 +4783,47 @@
         <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J38" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="K38" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L38" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>330</v>
+        <v>277</v>
       </c>
       <c r="O38" t="s">
-        <v>59</v>
-      </c>
-      <c r="P38" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
       <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="X38" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="Y38" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39">
@@ -4070,7 +4839,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -4079,25 +4848,25 @@
         <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="J39" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="K39" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="L39" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N39" t="s">
         <v>330</v>
       </c>
       <c r="O39" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4109,13 +4878,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="X39" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="Y39" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40">
@@ -4131,7 +4900,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -4140,32 +4909,34 @@
         <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="J40" t="s">
         <v>336</v>
       </c>
       <c r="K40" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="L40" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="O40" t="s">
         <v>52</v>
       </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
+      <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
-      <c r="R40" t="s"/>
-      <c r="S40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
         <v>5</v>
@@ -4180,7 +4951,7 @@
         <v>340</v>
       </c>
       <c r="Y40" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="41">
@@ -4196,7 +4967,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -4205,25 +4976,25 @@
         <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="J41" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="K41" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="L41" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>346</v>
+        <v>252</v>
       </c>
       <c r="O41" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4235,13 +5006,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="X41" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="Y41" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42">
@@ -4257,7 +5028,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
@@ -4266,47 +5037,43 @@
         <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="J42" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="K42" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="L42" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>346</v>
+        <v>252</v>
       </c>
       <c r="O42" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
       <c r="R42" t="s"/>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>5</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
+        <v>339</v>
+      </c>
+      <c r="X42" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y42" t="s">
         <v>353</v>
-      </c>
-      <c r="X42" t="s">
-        <v>354</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="43">
@@ -4322,7 +5089,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G43" t="s">
         <v>45</v>
@@ -4331,43 +5098,49 @@
         <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="J43" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="K43" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="L43" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>367</v>
+        <v>252</v>
       </c>
       <c r="O43" t="s">
-        <v>52</v>
-      </c>
-      <c r="P43" t="s"/>
-      <c r="Q43" t="s"/>
+        <v>193</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
       <c r="R43" t="s"/>
       <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="X43" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="Y43" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="44">
@@ -4383,7 +5156,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="G44" t="s">
         <v>45</v>
@@ -4392,31 +5165,33 @@
         <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="J44" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="K44" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="L44" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>367</v>
+        <v>252</v>
       </c>
       <c r="O44" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="n">
         <v>5</v>
       </c>
-      <c r="R44" t="s"/>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
       <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
@@ -4426,13 +5201,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="X44" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="Y44" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="45">
@@ -4448,7 +5223,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="G45" t="s">
         <v>45</v>
@@ -4457,25 +5232,25 @@
         <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="J45" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="K45" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="L45" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>367</v>
+        <v>252</v>
       </c>
       <c r="O45" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4487,13 +5262,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>382</v>
+        <v>339</v>
       </c>
       <c r="X45" t="s">
-        <v>383</v>
+        <v>340</v>
       </c>
       <c r="Y45" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
     </row>
     <row r="46">
@@ -4509,7 +5284,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="G46" t="s">
         <v>45</v>
@@ -4518,43 +5293,2274 @@
         <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="J46" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K46" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="L46" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="O46" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
       <c r="R46" t="s"/>
-      <c r="S46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
       <c r="T46" t="s"/>
-      <c r="U46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
+        <v>378</v>
+      </c>
+      <c r="X46" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>381</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>382</v>
+      </c>
+      <c r="J47" t="s">
+        <v>383</v>
+      </c>
+      <c r="K47" t="s">
+        <v>384</v>
+      </c>
+      <c r="L47" t="s">
+        <v>385</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>377</v>
+      </c>
+      <c r="O47" t="s">
+        <v>62</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>386</v>
+      </c>
+      <c r="X47" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>389</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>390</v>
+      </c>
+      <c r="J48" t="s">
         <v>391</v>
       </c>
-      <c r="X46" t="s">
+      <c r="K48" t="s">
         <v>392</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="L48" t="s">
         <v>393</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>394</v>
+      </c>
+      <c r="O48" t="s">
+        <v>104</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>395</v>
+      </c>
+      <c r="X48" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>398</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>399</v>
+      </c>
+      <c r="J49" t="s">
+        <v>400</v>
+      </c>
+      <c r="K49" t="s">
+        <v>401</v>
+      </c>
+      <c r="L49" t="s">
+        <v>402</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>394</v>
+      </c>
+      <c r="O49" t="s">
+        <v>62</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>395</v>
+      </c>
+      <c r="X49" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>404</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>405</v>
+      </c>
+      <c r="J50" t="s">
+        <v>406</v>
+      </c>
+      <c r="K50" t="s">
+        <v>407</v>
+      </c>
+      <c r="L50" t="s">
+        <v>408</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>394</v>
+      </c>
+      <c r="O50" t="s">
+        <v>52</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>395</v>
+      </c>
+      <c r="X50" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>410</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>411</v>
+      </c>
+      <c r="J51" t="s">
+        <v>412</v>
+      </c>
+      <c r="K51" t="s">
+        <v>413</v>
+      </c>
+      <c r="L51" t="s">
+        <v>414</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>394</v>
+      </c>
+      <c r="O51" t="s">
+        <v>62</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>415</v>
+      </c>
+      <c r="X51" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>418</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>419</v>
+      </c>
+      <c r="J52" t="s">
+        <v>420</v>
+      </c>
+      <c r="K52" t="s">
+        <v>421</v>
+      </c>
+      <c r="L52" t="s">
+        <v>422</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>423</v>
+      </c>
+      <c r="O52" t="s">
+        <v>62</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>424</v>
+      </c>
+      <c r="X52" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>427</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>428</v>
+      </c>
+      <c r="J53" t="s">
+        <v>429</v>
+      </c>
+      <c r="K53" t="s">
+        <v>430</v>
+      </c>
+      <c r="L53" t="s">
+        <v>431</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>432</v>
+      </c>
+      <c r="O53" t="s">
+        <v>52</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>433</v>
+      </c>
+      <c r="X53" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>436</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>437</v>
+      </c>
+      <c r="J54" t="s">
+        <v>438</v>
+      </c>
+      <c r="K54" t="s">
+        <v>439</v>
+      </c>
+      <c r="L54" t="s">
+        <v>440</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>432</v>
+      </c>
+      <c r="O54" t="s">
+        <v>62</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>441</v>
+      </c>
+      <c r="X54" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>444</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>445</v>
+      </c>
+      <c r="J55" t="s">
+        <v>446</v>
+      </c>
+      <c r="K55" t="s">
+        <v>447</v>
+      </c>
+      <c r="L55" t="s">
+        <v>448</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>432</v>
+      </c>
+      <c r="O55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>449</v>
+      </c>
+      <c r="X55" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>452</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>453</v>
+      </c>
+      <c r="J56" t="s">
+        <v>454</v>
+      </c>
+      <c r="K56" t="s">
+        <v>455</v>
+      </c>
+      <c r="L56" t="s">
+        <v>456</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>457</v>
+      </c>
+      <c r="O56" t="s">
+        <v>52</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>458</v>
+      </c>
+      <c r="X56" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>461</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>462</v>
+      </c>
+      <c r="J57" t="s">
+        <v>463</v>
+      </c>
+      <c r="K57" t="s">
+        <v>464</v>
+      </c>
+      <c r="L57" t="s">
+        <v>465</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>457</v>
+      </c>
+      <c r="O57" t="s">
+        <v>62</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>466</v>
+      </c>
+      <c r="X57" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>469</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>470</v>
+      </c>
+      <c r="J58" t="s">
+        <v>471</v>
+      </c>
+      <c r="K58" t="s">
+        <v>472</v>
+      </c>
+      <c r="L58" t="s">
+        <v>473</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>457</v>
+      </c>
+      <c r="O58" t="s">
+        <v>193</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>474</v>
+      </c>
+      <c r="X58" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>477</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>478</v>
+      </c>
+      <c r="J59" t="s">
+        <v>479</v>
+      </c>
+      <c r="K59" t="s">
+        <v>480</v>
+      </c>
+      <c r="L59" t="s">
+        <v>481</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>482</v>
+      </c>
+      <c r="O59" t="s">
+        <v>52</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>483</v>
+      </c>
+      <c r="X59" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>486</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>487</v>
+      </c>
+      <c r="J60" t="s">
+        <v>488</v>
+      </c>
+      <c r="K60" t="s">
+        <v>489</v>
+      </c>
+      <c r="L60" t="s">
+        <v>490</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>482</v>
+      </c>
+      <c r="O60" t="s">
+        <v>62</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>483</v>
+      </c>
+      <c r="X60" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>492</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>493</v>
+      </c>
+      <c r="J61" t="s">
+        <v>494</v>
+      </c>
+      <c r="K61" t="s">
+        <v>495</v>
+      </c>
+      <c r="L61" t="s">
+        <v>496</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>482</v>
+      </c>
+      <c r="O61" t="s">
+        <v>104</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>497</v>
+      </c>
+      <c r="X61" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>500</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>501</v>
+      </c>
+      <c r="J62" t="s">
+        <v>502</v>
+      </c>
+      <c r="K62" t="s">
+        <v>503</v>
+      </c>
+      <c r="L62" t="s">
+        <v>504</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>482</v>
+      </c>
+      <c r="O62" t="s">
+        <v>104</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>497</v>
+      </c>
+      <c r="X62" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>506</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>507</v>
+      </c>
+      <c r="J63" t="s">
+        <v>502</v>
+      </c>
+      <c r="K63" t="s">
+        <v>508</v>
+      </c>
+      <c r="L63" t="s">
+        <v>509</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>482</v>
+      </c>
+      <c r="O63" t="s">
+        <v>62</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>510</v>
+      </c>
+      <c r="X63" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>513</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>514</v>
+      </c>
+      <c r="J64" t="s">
+        <v>515</v>
+      </c>
+      <c r="K64" t="s">
+        <v>516</v>
+      </c>
+      <c r="L64" t="s">
+        <v>517</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>482</v>
+      </c>
+      <c r="O64" t="s">
+        <v>62</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>518</v>
+      </c>
+      <c r="X64" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>521</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>522</v>
+      </c>
+      <c r="J65" t="s">
+        <v>523</v>
+      </c>
+      <c r="K65" t="s">
+        <v>524</v>
+      </c>
+      <c r="L65" t="s">
+        <v>525</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>482</v>
+      </c>
+      <c r="O65" t="s">
+        <v>193</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="s"/>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>518</v>
+      </c>
+      <c r="X65" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>527</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>528</v>
+      </c>
+      <c r="J66" t="s">
+        <v>529</v>
+      </c>
+      <c r="K66" t="s">
+        <v>530</v>
+      </c>
+      <c r="L66" t="s">
+        <v>531</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>532</v>
+      </c>
+      <c r="O66" t="s">
+        <v>104</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>533</v>
+      </c>
+      <c r="X66" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>536</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>537</v>
+      </c>
+      <c r="J67" t="s">
+        <v>538</v>
+      </c>
+      <c r="K67" t="s">
+        <v>539</v>
+      </c>
+      <c r="L67" t="s">
+        <v>540</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>482</v>
+      </c>
+      <c r="O67" t="s">
+        <v>104</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>541</v>
+      </c>
+      <c r="X67" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>544</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>545</v>
+      </c>
+      <c r="J68" t="s">
+        <v>546</v>
+      </c>
+      <c r="K68" t="s">
+        <v>547</v>
+      </c>
+      <c r="L68" t="s">
+        <v>548</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>549</v>
+      </c>
+      <c r="O68" t="s">
+        <v>104</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>550</v>
+      </c>
+      <c r="X68" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>553</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>554</v>
+      </c>
+      <c r="J69" t="s">
+        <v>555</v>
+      </c>
+      <c r="K69" t="s">
+        <v>556</v>
+      </c>
+      <c r="L69" t="s">
+        <v>557</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>549</v>
+      </c>
+      <c r="O69" t="s">
+        <v>104</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>558</v>
+      </c>
+      <c r="X69" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>561</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>562</v>
+      </c>
+      <c r="J70" t="s">
+        <v>555</v>
+      </c>
+      <c r="K70" t="s">
+        <v>563</v>
+      </c>
+      <c r="L70" t="s">
+        <v>564</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>532</v>
+      </c>
+      <c r="O70" t="s">
+        <v>62</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>558</v>
+      </c>
+      <c r="X70" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>566</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>567</v>
+      </c>
+      <c r="J71" t="s">
+        <v>568</v>
+      </c>
+      <c r="K71" t="s">
+        <v>569</v>
+      </c>
+      <c r="L71" t="s">
+        <v>570</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>571</v>
+      </c>
+      <c r="O71" t="s">
+        <v>52</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>572</v>
+      </c>
+      <c r="X71" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>575</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>576</v>
+      </c>
+      <c r="J72" t="s">
+        <v>577</v>
+      </c>
+      <c r="K72" t="s">
+        <v>578</v>
+      </c>
+      <c r="L72" t="s">
+        <v>579</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>532</v>
+      </c>
+      <c r="O72" t="s">
+        <v>52</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>580</v>
+      </c>
+      <c r="X72" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>583</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>584</v>
+      </c>
+      <c r="J73" t="s">
+        <v>585</v>
+      </c>
+      <c r="K73" t="s">
+        <v>586</v>
+      </c>
+      <c r="L73" t="s">
+        <v>587</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>532</v>
+      </c>
+      <c r="O73" t="s">
+        <v>104</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>588</v>
+      </c>
+      <c r="X73" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>591</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>592</v>
+      </c>
+      <c r="J74" t="s">
+        <v>593</v>
+      </c>
+      <c r="K74" t="s">
+        <v>594</v>
+      </c>
+      <c r="L74" t="s">
+        <v>595</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>532</v>
+      </c>
+      <c r="O74" t="s">
+        <v>62</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>588</v>
+      </c>
+      <c r="X74" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>597</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>598</v>
+      </c>
+      <c r="J75" t="s">
+        <v>599</v>
+      </c>
+      <c r="K75" t="s">
+        <v>600</v>
+      </c>
+      <c r="L75" t="s">
+        <v>601</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>571</v>
+      </c>
+      <c r="O75" t="s">
+        <v>62</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>602</v>
+      </c>
+      <c r="X75" t="s">
+        <v>603</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>605</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>606</v>
+      </c>
+      <c r="J76" t="s">
+        <v>607</v>
+      </c>
+      <c r="K76" t="s">
+        <v>608</v>
+      </c>
+      <c r="L76" t="s">
+        <v>609</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>571</v>
+      </c>
+      <c r="O76" t="s">
+        <v>104</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>602</v>
+      </c>
+      <c r="X76" t="s">
+        <v>603</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>611</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>612</v>
+      </c>
+      <c r="J77" t="s">
+        <v>613</v>
+      </c>
+      <c r="K77" t="s">
+        <v>614</v>
+      </c>
+      <c r="L77" t="s">
+        <v>615</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>571</v>
+      </c>
+      <c r="O77" t="s">
+        <v>104</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>602</v>
+      </c>
+      <c r="X77" t="s">
+        <v>603</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>617</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>618</v>
+      </c>
+      <c r="J78" t="s">
+        <v>613</v>
+      </c>
+      <c r="K78" t="s">
+        <v>619</v>
+      </c>
+      <c r="L78" t="s">
+        <v>620</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>571</v>
+      </c>
+      <c r="O78" t="s">
+        <v>104</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>602</v>
+      </c>
+      <c r="X78" t="s">
+        <v>603</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>622</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>623</v>
+      </c>
+      <c r="J79" t="s">
+        <v>624</v>
+      </c>
+      <c r="K79" t="s">
+        <v>625</v>
+      </c>
+      <c r="L79" t="s">
+        <v>626</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>571</v>
+      </c>
+      <c r="O79" t="s">
+        <v>62</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>627</v>
+      </c>
+      <c r="X79" t="s">
+        <v>628</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>630</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>631</v>
+      </c>
+      <c r="J80" t="s">
+        <v>632</v>
+      </c>
+      <c r="K80" t="s">
+        <v>633</v>
+      </c>
+      <c r="L80" t="s">
+        <v>634</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>635</v>
+      </c>
+      <c r="O80" t="s">
+        <v>52</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>636</v>
+      </c>
+      <c r="X80" t="s">
+        <v>637</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>64678</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>639</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>640</v>
+      </c>
+      <c r="J81" t="s">
+        <v>641</v>
+      </c>
+      <c r="K81" t="s">
+        <v>642</v>
+      </c>
+      <c r="L81" t="s">
+        <v>643</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>635</v>
+      </c>
+      <c r="O81" t="s">
+        <v>168</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>644</v>
+      </c>
+      <c r="X81" t="s">
+        <v>645</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>646</v>
       </c>
     </row>
   </sheetData>
